--- a/output/Q4a.xlsx
+++ b/output/Q4a.xlsx
@@ -28,6 +28,618 @@
     <t>geom</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Lianyungang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.65680027,"y":119.2582493,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":22.99616667,"y":72.59958333,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":19.06117279,"y":72.91509643,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":5.585042,"y":-0.189354,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27.21187076,"y":78.03533867,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":13.04788893,"y":80.20482196,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28.40954741,"y":77.3149207,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26.26288889,"y":92.25144444,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26.4703088,"y":80.3251749,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":22.551462,"y":88.350983,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26.84417037,"y":80.94226944,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Muzaffarpur</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26.1237072,"y":85.3803361,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Panchkula</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.6942091,"y":76.860565,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Patiala</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.35271389,"y":76.3717625,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":18.57619857,"y":73.89866207,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":25.34909893,"y":82.97964192,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28.6,"y":77.2,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":33.317248,"y":44.390969,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Delta Region</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.9799366,"y":31.00577736,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Greater Cairo</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.11979866,"y":31.53700066,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Liaocheng</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.4578654,"y":115.9883677,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Linfen</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.07648341,"y":111.5132497,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Luzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28.9000001,"y":105.4346504,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Ma anshan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.67044,"y":118.507011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Nanjing</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32.06233521,"y":118.7771873,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Nantong</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.99043961,"y":120.8786011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Qingdao</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.14189758,"y":120.3920349,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Rizhao</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35.41246668,"y":119.5079676,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Sanmenxia</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.79064941,"y":111.1713753,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.21335602,"y":121.4539739,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Shaoxing</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.02144051,"y":120.5912762,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Shenyang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41.80815792,"y":123.4474735,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Shijiazhuang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38.03695636,"y":114.5034188,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Suqian</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":33.95565033,"y":118.2811012,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.30151272,"y":120.6052494,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Tai an</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.200252,"y":117.087614,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Taiyuan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37.85853882,"y":112.5249084,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Taizhou(Jiangsu Province)</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32.455536,"y":119.922933,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Tangshan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":39.64495405,"y":118.182916,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":39.08901668,"y":117.2987485,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Tongchuan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.98699951,"y":109.0071507,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Urumqi</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":43.86347437,"y":87.5667696,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Wei nan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.49938,"y":109.502882,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.54446342,"y":114.2585435,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Wuhu</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.36784983,"y":118.3739491,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Wuxi</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.57018607,"y":120.2895704,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Xi an</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.30759757,"y":108.9863412,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Xiangtan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27.8762861,"y":112.8673281,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Xianyang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.34794903,"y":108.7140007,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Xingtai</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37.0770998,"y":114.5066738,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Xuzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.25584303,"y":117.2157571,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Yangzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32.39429951,"y":119.4230003,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Yibin</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28.77513822,"y":104.6203677,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Yinchuan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38.50052861,"y":106.1582042,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Zaozhuang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.81762009,"y":117.5221191,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Zhangjiajie</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29.23320055,"y":110.4877033,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Zhengzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.77368011,"y":113.6493362,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Zhenjiang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32.18520069,"y":119.5074997,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Zhuzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27.87115696,"y":113.1575285,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Zigong</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29.35472536,"y":104.7549992,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Anshan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41.0918857,"y":123.0229002,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Baoding</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38.87626648,"y":115.485199,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Baoji</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34.35412502,"y":107.1895876,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":40.02801387,"y":116.3990189,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Benxi</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41.31211599,"y":123.7845319,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Binzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37.37833277,"y":117.9952011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Cangzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38.31576665,"y":116.8715668,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Changchun</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":43.82719733,"y":125.3520959,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Changde</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29.04045982,"y":111.6944794,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Changsha</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28.20731007,"y":112.9795553,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Changzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.78743362,"y":119.9617157,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Chengdu</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.68940777,"y":104.0198381,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29.59311178,"y":106.511698,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Deyang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.12039995,"y":104.3923473,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Dezhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37.45523326,"y":116.2993011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Dongying</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37.42987537,"y":118.6434994,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Fushun</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41.86328379,"y":123.9107831,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Guilin</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":25.26874971,"y":110.3230247,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Handan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.60785961,"y":114.513876,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.34446557,"y":120.0729154,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Harbin</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":45.74307427,"y":126.6393433,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Hefei</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31.84572619,"y":117.2459315,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Hengshui</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37.7447993,"y":115.6760991,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Heze</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35.25212987,"y":115.4508311,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Huai an</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":33.58213959,"y":119.0358414,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Huludao</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":40.73840046,"y":120.8648262,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Huzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.86678696,"y":120.0874557,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Ji ning</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35.414982,"y":116.587282,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jiaozuo</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35.22084999,"y":113.2334003,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jiaxing</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.76325607,"y":120.7478867,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":43.84885733,"y":126.5585284,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jinan</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.64722146,"y":116.9928775,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jingzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30.32483292,"y":112.2501984,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jinhua</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29.09301472,"y":119.657362,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Jinzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41.05881958,"y":121.1184998,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Laiwu</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.2140007,"y":117.6929652,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Langfang</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":39.54597473,"y":116.7295246,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Lanzhou</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36.04978053,"y":103.8328845,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Pasakha</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26.8348712,"y":89.4619134,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -73,616 +685,25 @@
     <t>{"srid":4326,"version":1,"points":[{"x":24.889999,"y":91.870003,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Pasakha</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":26.8348712,"y":89.4619134,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Anshan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":41.0918857,"y":123.0229002,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Baoding</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":38.87626648,"y":115.485199,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Baoji</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.35412502,"y":107.1895876,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":40.02801387,"y":116.3990189,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Benxi</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":41.31211599,"y":123.7845319,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Binzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":37.37833277,"y":117.9952011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Cangzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":38.31576665,"y":116.8715668,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Changchun</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":43.82719733,"y":125.3520959,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Changde</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":29.04045982,"y":111.6944794,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Changsha</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":28.20731007,"y":112.9795553,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Changzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.78743362,"y":119.9617157,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Chengdu</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.68940777,"y":104.0198381,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Chongqing</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":29.59311178,"y":106.511698,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Deyang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.12039995,"y":104.3923473,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Dezhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":37.45523326,"y":116.2993011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Dongying</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":37.42987537,"y":118.6434994,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Fushun</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":41.86328379,"y":123.9107831,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Guilin</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":25.26874971,"y":110.3230247,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Handan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.60785961,"y":114.513876,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.34446557,"y":120.0729154,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Harbin</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":45.74307427,"y":126.6393433,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Hefei</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.84572619,"y":117.2459315,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Hengshui</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":37.7447993,"y":115.6760991,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Heze</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":35.25212987,"y":115.4508311,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Huai an</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":33.58213959,"y":119.0358414,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Huludao</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":40.73840046,"y":120.8648262,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Huzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.86678696,"y":120.0874557,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Ji ning</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":35.414982,"y":116.587282,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jiaozuo</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":35.22084999,"y":113.2334003,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jiaxing</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.76325607,"y":120.7478867,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jilin</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":43.84885733,"y":126.5585284,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jinan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.64722146,"y":116.9928775,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jingzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.32483292,"y":112.2501984,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jinhua</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":29.09301472,"y":119.657362,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Jinzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":41.05881958,"y":121.1184998,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Laiwu</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.2140007,"y":117.6929652,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Langfang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":39.54597473,"y":116.7295246,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Lanzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.04978053,"y":103.8328845,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Lianyungang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.65680027,"y":119.2582493,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Liaocheng</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.4578654,"y":115.9883677,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Linfen</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.07648341,"y":111.5132497,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Luzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":28.9000001,"y":105.4346504,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Ma anshan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.67044,"y":118.507011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Nanjing</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":32.06233521,"y":118.7771873,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Nantong</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.99043961,"y":120.8786011,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Qingdao</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.14189758,"y":120.3920349,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Rizhao</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":35.41246668,"y":119.5079676,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Sanmenxia</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.79064941,"y":111.1713753,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.21335602,"y":121.4539739,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Shaoxing</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.02144051,"y":120.5912762,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Shenyang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":41.80815792,"y":123.4474735,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Shijiazhuang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":38.03695636,"y":114.5034188,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Suqian</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":33.95565033,"y":118.2811012,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Suzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.30151272,"y":120.6052494,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Tai an</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":36.200252,"y":117.087614,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Taiyuan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":37.85853882,"y":112.5249084,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Taizhou(Jiangsu Province)</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":32.455536,"y":119.922933,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Tangshan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":39.64495405,"y":118.182916,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Tianjin</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":39.08901668,"y":117.2987485,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Tongchuan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.98699951,"y":109.0071507,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Urumqi</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":43.86347437,"y":87.5667696,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Wei nan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.49938,"y":109.502882,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Wuhan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.54446342,"y":114.2585435,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Wuhu</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.36784983,"y":118.3739491,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Wuxi</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":31.57018607,"y":120.2895704,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Xi an</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.30759757,"y":108.9863412,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Xiangtan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":27.8762861,"y":112.8673281,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Xianyang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.34794903,"y":108.7140007,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Xingtai</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":37.0770998,"y":114.5066738,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Xuzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.25584303,"y":117.2157571,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Yangzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":32.39429951,"y":119.4230003,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Yibin</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":28.77513822,"y":104.6203677,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Yinchuan</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":38.50052861,"y":106.1582042,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Zaozhuang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.81762009,"y":117.5221191,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Zhangjiajie</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":29.23320055,"y":110.4877033,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Zhengzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":34.77368011,"y":113.6493362,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Zhenjiang</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":32.18520069,"y":119.5074997,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Zhuzhou</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":27.87115696,"y":113.1575285,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Zigong</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":29.35472536,"y":104.7549992,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Delta Region</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.9799366,"y":31.00577736,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Greater Cairo</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.11979866,"y":31.53700066,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":5.585042,"y":-0.189354,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Agra</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":27.21187076,"y":78.03533867,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":22.99616667,"y":72.59958333,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":13.04788893,"y":80.20482196,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Faridabad</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":28.40954741,"y":77.3149207,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Guwahati</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":26.26288889,"y":92.25144444,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":26.4703088,"y":80.3251749,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":22.551462,"y":88.350983,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":26.84417037,"y":80.94226944,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":19.06117279,"y":72.91509643,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Muzaffarpur</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":26.1237072,"y":85.3803361,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Panchkula</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.6942091,"y":76.860565,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Patiala</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":30.35271389,"y":76.3717625,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":18.57619857,"y":73.89866207,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Varanasi</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":25.34909893,"y":82.97964192,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":28.6,"y":77.2,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Baghdad</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":33.317248,"y":44.390969,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24.40597825,"y":54.49353213,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Al Ain</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24.09988,"y":55.6179525,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
+    <t>Al Gharbia</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":23.6981428,"y":53.2853144,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -803,27 +824,6 @@
   </si>
   <si>
     <t>{"srid":4326,"version":1,"points":[{"x":26.39266586,"y":49.97771454,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":24.40597825,"y":54.49353213,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Al Ain</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":24.09988,"y":55.6179525,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Al Gharbia</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":23.6981428,"y":53.2853144,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1231,7 @@
         <v>2015</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1239,126 +1239,126 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3">
-        <v>65.6</v>
+        <v>65.39</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="D4">
-        <v>81.56666667</v>
+        <v>66.19342366</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
       <c r="D5">
-        <v>81.2</v>
+        <v>84.45671102</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="D6">
-        <v>83.6</v>
+        <v>114.82</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2015</v>
       </c>
       <c r="D7">
-        <v>94.2</v>
+        <v>50.6133127</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2015</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>77.195</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2015</v>
       </c>
       <c r="D9">
-        <v>149.8631313</v>
+        <v>53.71680868</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1367,7 +1367,7 @@
         <v>2015</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>107.92</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1384,7 +1384,7 @@
         <v>2015</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>51.73471521</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1401,7 +1401,7 @@
         <v>2015</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>107.6366667</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1418,7 +1418,7 @@
         <v>2015</v>
       </c>
       <c r="D13">
-        <v>80.6</v>
+        <v>196.69</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1435,7 +1435,7 @@
         <v>2015</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>53.93</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1452,7 +1452,7 @@
         <v>2015</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>81.51</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -1469,7 +1469,7 @@
         <v>2015</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>50.11083333</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -1486,7 +1486,7 @@
         <v>2015</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>115.345</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -1503,7 +1503,7 @@
         <v>2015</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>123.12</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -1511,180 +1511,180 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>2015</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>85.41348096</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>102.1873242</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>2015</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>116.5510043</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>2015</v>
       </c>
       <c r="D23">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>2015</v>
       </c>
       <c r="D24">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>2015</v>
       </c>
       <c r="D25">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>2015</v>
+      </c>
+      <c r="D27">
         <v>58</v>
       </c>
-      <c r="C27">
-        <v>2015</v>
-      </c>
-      <c r="D27">
-        <v>51</v>
-      </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>2015</v>
       </c>
       <c r="D28">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>2015</v>
@@ -1693,253 +1693,253 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>2015</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>2015</v>
       </c>
       <c r="D31">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>2015</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>2015</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>2015</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>2015</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>2015</v>
       </c>
       <c r="D37">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>2015</v>
       </c>
       <c r="D38">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>2015</v>
       </c>
       <c r="D39">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>2015</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>2015</v>
       </c>
       <c r="D41">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <v>2015</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>2015</v>
       </c>
       <c r="D43">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44">
         <v>2015</v>
@@ -1948,168 +1948,168 @@
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>2015</v>
       </c>
       <c r="D45">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>2015</v>
       </c>
       <c r="D46">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <v>2015</v>
       </c>
       <c r="D47">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>2015</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>2015</v>
       </c>
       <c r="D49">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>2015</v>
       </c>
       <c r="D50">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>2015</v>
       </c>
       <c r="D51">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>2015</v>
       </c>
       <c r="D52">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53">
         <v>2015</v>
       </c>
       <c r="D53">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54">
         <v>2015</v>
@@ -2118,15 +2118,15 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C55">
         <v>2015</v>
@@ -2135,219 +2135,219 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C56">
         <v>2015</v>
       </c>
       <c r="D56">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57">
         <v>2015</v>
       </c>
       <c r="D57">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58">
         <v>2015</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C59">
         <v>2015</v>
       </c>
       <c r="D59">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60">
         <v>2015</v>
       </c>
       <c r="D60">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C61">
         <v>2015</v>
       </c>
       <c r="D61">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C62">
         <v>2015</v>
       </c>
       <c r="D62">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C63">
         <v>2015</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64">
         <v>2015</v>
       </c>
       <c r="D64">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>2015</v>
       </c>
       <c r="D65">
-        <v>62</v>
+        <v>80.6</v>
       </c>
       <c r="E65" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C66">
         <v>2015</v>
       </c>
       <c r="D66">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C67">
         <v>2015</v>
       </c>
       <c r="D67">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C68">
         <v>2015</v>
@@ -2356,386 +2356,386 @@
         <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C69">
         <v>2015</v>
       </c>
       <c r="D69">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C70">
         <v>2015</v>
       </c>
       <c r="D70">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71">
         <v>2015</v>
       </c>
       <c r="D71">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C72">
         <v>2015</v>
       </c>
       <c r="D72">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C73">
         <v>2015</v>
       </c>
       <c r="D73">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C74">
         <v>2015</v>
       </c>
       <c r="D74">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C75">
         <v>2015</v>
       </c>
       <c r="D75">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C76">
         <v>2015</v>
       </c>
       <c r="D76">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C77">
         <v>2015</v>
       </c>
       <c r="D77">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C78">
         <v>2015</v>
       </c>
       <c r="D78">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C79">
         <v>2015</v>
       </c>
       <c r="D79">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C80">
         <v>2015</v>
       </c>
       <c r="D80">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C81">
         <v>2015</v>
       </c>
       <c r="D81">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C82">
         <v>2015</v>
       </c>
       <c r="D82">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C83">
         <v>2015</v>
       </c>
       <c r="D83">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84">
         <v>2015</v>
       </c>
       <c r="D84">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C85">
         <v>2015</v>
       </c>
       <c r="D85">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E85" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C86">
         <v>2015</v>
       </c>
       <c r="D86">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C87">
         <v>2015</v>
       </c>
       <c r="D87">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C88">
         <v>2015</v>
       </c>
       <c r="D88">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C89">
         <v>2015</v>
       </c>
       <c r="D89">
-        <v>102.1873242</v>
+        <v>82</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C90">
         <v>2015</v>
       </c>
       <c r="D90">
-        <v>116.5510043</v>
+        <v>87</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
         <v>188</v>
@@ -2744,7 +2744,7 @@
         <v>2015</v>
       </c>
       <c r="D91">
-        <v>84.45671102</v>
+        <v>53</v>
       </c>
       <c r="E91" t="s">
         <v>189</v>
@@ -2752,143 +2752,143 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
         <v>190</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92">
+        <v>2015</v>
+      </c>
+      <c r="D92">
+        <v>59</v>
+      </c>
+      <c r="E92" t="s">
         <v>191</v>
-      </c>
-      <c r="C92">
-        <v>2015</v>
-      </c>
-      <c r="D92">
-        <v>114.82</v>
-      </c>
-      <c r="E92" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93">
+        <v>2015</v>
+      </c>
+      <c r="D93">
+        <v>87</v>
+      </c>
+      <c r="E93" t="s">
         <v>193</v>
-      </c>
-      <c r="C93">
-        <v>2015</v>
-      </c>
-      <c r="D93">
-        <v>65.39</v>
-      </c>
-      <c r="E93" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94">
+        <v>2015</v>
+      </c>
+      <c r="D94">
+        <v>70</v>
+      </c>
+      <c r="E94" t="s">
         <v>195</v>
-      </c>
-      <c r="C94">
-        <v>2015</v>
-      </c>
-      <c r="D94">
-        <v>50.6133127</v>
-      </c>
-      <c r="E94" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <v>2015</v>
+      </c>
+      <c r="D95">
+        <v>54</v>
+      </c>
+      <c r="E95" t="s">
         <v>197</v>
-      </c>
-      <c r="C95">
-        <v>2015</v>
-      </c>
-      <c r="D95">
-        <v>77.195</v>
-      </c>
-      <c r="E95" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96">
+        <v>2015</v>
+      </c>
+      <c r="D96">
+        <v>60</v>
+      </c>
+      <c r="E96" t="s">
         <v>199</v>
-      </c>
-      <c r="C96">
-        <v>2015</v>
-      </c>
-      <c r="D96">
-        <v>53.71680868</v>
-      </c>
-      <c r="E96" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97">
+        <v>2015</v>
+      </c>
+      <c r="D97">
+        <v>84</v>
+      </c>
+      <c r="E97" t="s">
         <v>201</v>
-      </c>
-      <c r="C97">
-        <v>2015</v>
-      </c>
-      <c r="D97">
-        <v>107.92</v>
-      </c>
-      <c r="E97" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98">
+        <v>2015</v>
+      </c>
+      <c r="D98">
+        <v>85</v>
+      </c>
+      <c r="E98" t="s">
         <v>203</v>
-      </c>
-      <c r="C98">
-        <v>2015</v>
-      </c>
-      <c r="D98">
-        <v>51.73471521</v>
-      </c>
-      <c r="E98" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99">
+        <v>2015</v>
+      </c>
+      <c r="D99">
+        <v>52</v>
+      </c>
+      <c r="E99" t="s">
         <v>205</v>
-      </c>
-      <c r="C99">
-        <v>2015</v>
-      </c>
-      <c r="D99">
-        <v>107.6366667</v>
-      </c>
-      <c r="E99" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
         <v>207</v>
@@ -2897,7 +2897,7 @@
         <v>2015</v>
       </c>
       <c r="D100">
-        <v>66.19342366</v>
+        <v>149.8631313</v>
       </c>
       <c r="E100" t="s">
         <v>208</v>
@@ -2905,109 +2905,109 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C101">
         <v>2015</v>
       </c>
       <c r="D101">
-        <v>196.69</v>
+        <v>80</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C102">
         <v>2015</v>
       </c>
       <c r="D102">
-        <v>53.93</v>
+        <v>65.6</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C103">
         <v>2015</v>
       </c>
       <c r="D103">
-        <v>81.51</v>
+        <v>81.56666667</v>
       </c>
       <c r="E103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C104">
         <v>2015</v>
       </c>
       <c r="D104">
-        <v>50.11083333</v>
+        <v>81.2</v>
       </c>
       <c r="E104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C105">
         <v>2015</v>
       </c>
       <c r="D105">
-        <v>115.345</v>
+        <v>83.6</v>
       </c>
       <c r="E105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C106">
         <v>2015</v>
       </c>
       <c r="D106">
-        <v>123.12</v>
+        <v>94.2</v>
       </c>
       <c r="E106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
         <v>222</v>
@@ -3016,7 +3016,7 @@
         <v>2015</v>
       </c>
       <c r="D107">
-        <v>85.41348096</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
         <v>223</v>
@@ -3033,7 +3033,7 @@
         <v>2015</v>
       </c>
       <c r="D108">
-        <v>52.73522552</v>
+        <v>61.4560313</v>
       </c>
       <c r="E108" t="s">
         <v>226</v>
@@ -3041,41 +3041,41 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s">
         <v>227</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109">
+        <v>2015</v>
+      </c>
+      <c r="D109">
+        <v>50.20448188</v>
+      </c>
+      <c r="E109" t="s">
         <v>228</v>
-      </c>
-      <c r="C109">
-        <v>2015</v>
-      </c>
-      <c r="D109">
-        <v>79.35661527</v>
-      </c>
-      <c r="E109" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110">
+        <v>2015</v>
+      </c>
+      <c r="D110">
+        <v>62.9375423</v>
+      </c>
+      <c r="E110" t="s">
         <v>230</v>
-      </c>
-      <c r="C110">
-        <v>2015</v>
-      </c>
-      <c r="D110">
-        <v>59.91834729</v>
-      </c>
-      <c r="E110" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B111" t="s">
         <v>232</v>
@@ -3084,7 +3084,7 @@
         <v>2015</v>
       </c>
       <c r="D111">
-        <v>67.67726581</v>
+        <v>52.73522552</v>
       </c>
       <c r="E111" t="s">
         <v>233</v>
@@ -3092,109 +3092,109 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112">
         <v>2015</v>
       </c>
       <c r="D112">
-        <v>59.01820529</v>
+        <v>79.35661527</v>
       </c>
       <c r="E112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C113">
         <v>2015</v>
       </c>
       <c r="D113">
-        <v>50.45688796</v>
+        <v>59.91834729</v>
       </c>
       <c r="E113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C114">
         <v>2015</v>
       </c>
       <c r="D114">
-        <v>71.21696263</v>
+        <v>67.67726581</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115">
         <v>2015</v>
       </c>
       <c r="D115">
-        <v>102.5472489</v>
+        <v>59.01820529</v>
       </c>
       <c r="E115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C116">
         <v>2015</v>
       </c>
       <c r="D116">
-        <v>105.2614165</v>
+        <v>50.45688796</v>
       </c>
       <c r="E116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C117">
         <v>2015</v>
       </c>
       <c r="D117">
-        <v>80.750131</v>
+        <v>71.21696263</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
         <v>247</v>
@@ -3203,7 +3203,7 @@
         <v>2015</v>
       </c>
       <c r="D118">
-        <v>57</v>
+        <v>102.5472489</v>
       </c>
       <c r="E118" t="s">
         <v>248</v>
@@ -3211,75 +3211,75 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
         <v>249</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119">
+        <v>2015</v>
+      </c>
+      <c r="D119">
+        <v>105.2614165</v>
+      </c>
+      <c r="E119" t="s">
         <v>250</v>
-      </c>
-      <c r="C119">
-        <v>2015</v>
-      </c>
-      <c r="D119">
-        <v>65.88279078</v>
-      </c>
-      <c r="E119" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120">
+        <v>2015</v>
+      </c>
+      <c r="D120">
+        <v>80.750131</v>
+      </c>
+      <c r="E120" t="s">
         <v>252</v>
-      </c>
-      <c r="B120" t="s">
-        <v>253</v>
-      </c>
-      <c r="C120">
-        <v>2015</v>
-      </c>
-      <c r="D120">
-        <v>65.29886835</v>
-      </c>
-      <c r="E120" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121">
+        <v>2015</v>
+      </c>
+      <c r="D121">
+        <v>57</v>
+      </c>
+      <c r="E121" t="s">
         <v>255</v>
-      </c>
-      <c r="B121" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121">
-        <v>2015</v>
-      </c>
-      <c r="D121">
-        <v>69</v>
-      </c>
-      <c r="E121" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122">
+        <v>2015</v>
+      </c>
+      <c r="D122">
+        <v>65.88279078</v>
+      </c>
+      <c r="E122" t="s">
         <v>258</v>
-      </c>
-      <c r="C122">
-        <v>2015</v>
-      </c>
-      <c r="D122">
-        <v>67</v>
-      </c>
-      <c r="E122" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B123" t="s">
         <v>260</v>
@@ -3288,7 +3288,7 @@
         <v>2015</v>
       </c>
       <c r="D123">
-        <v>69</v>
+        <v>65.29886835</v>
       </c>
       <c r="E123" t="s">
         <v>261</v>
@@ -3296,24 +3296,24 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C124">
         <v>2015</v>
       </c>
       <c r="D124">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
         <v>265</v>
@@ -3322,7 +3322,7 @@
         <v>2015</v>
       </c>
       <c r="D125">
-        <v>61.4560313</v>
+        <v>67</v>
       </c>
       <c r="E125" t="s">
         <v>266</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s">
         <v>267</v>
@@ -3339,7 +3339,7 @@
         <v>2015</v>
       </c>
       <c r="D126">
-        <v>50.20448188</v>
+        <v>69</v>
       </c>
       <c r="E126" t="s">
         <v>268</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B127" t="s">
         <v>269</v>
@@ -3356,7 +3356,7 @@
         <v>2015</v>
       </c>
       <c r="D127">
-        <v>62.9375423</v>
+        <v>61</v>
       </c>
       <c r="E127" t="s">
         <v>270</v>

--- a/output/Q4a.xlsx
+++ b/output/Q4a.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="242">
   <si>
     <t>country</t>
   </si>
@@ -37,12 +37,21 @@
     <t>2015</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":23,"y":90,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Chittagong</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":22,"y":92,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Dhaka</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24,"y":90,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Gazipur</t>
   </si>
   <si>
@@ -52,216 +61,402 @@
     <t>Narayangonj</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24,"y":91,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Sylhet</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":25,"y":92,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>Pasakha</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27,"y":89,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
     <t>Anshan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41,"y":123,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Baoding</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":39,"y":115,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Baoji</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34,"y":107,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Beijing</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":40,"y":116,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Benxi</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41,"y":124,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Binzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37,"y":118,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Cangzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Changchun</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":44,"y":125,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Changde</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29,"y":112,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Changsha</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28,"y":113,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Changzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32,"y":120,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Chengdu</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":104,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Chongqing</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30,"y":107,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Deyang</t>
   </si>
   <si>
     <t>Dezhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37,"y":116,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Dongying</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37,"y":119,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Fushun</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":42,"y":124,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Guilin</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":25,"y":110,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Handan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37,"y":115,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30,"y":120,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Harbin</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":46,"y":127,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Hefei</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Hengshui</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38,"y":116,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Heze</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":115,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Huai an</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34,"y":119,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Huludao</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":41,"y":121,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Huzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":120,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Ji ning</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jiaozuo</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":113,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jiaxing</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":121,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jilin</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":44,"y":127,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jinan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":37,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jingzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30,"y":112,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jinhua</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29,"y":120,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jinzhou</t>
   </si>
   <si>
     <t>Laiwu</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36,"y":118,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Langfang</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":40,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Lanzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36,"y":104,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Lianyungang</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":119,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Liaocheng</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36,"y":116,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Linfen</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36,"y":112,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Luzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29,"y":105,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Ma anshan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32,"y":119,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Nanjing</t>
   </si>
   <si>
     <t>Nantong</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32,"y":121,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Qingdao</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36,"y":120,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Rizhao</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":120,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Sanmenxia</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":111,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Shanghai</t>
   </si>
   <si>
     <t>Shaoxing</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30,"y":121,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Shenyang</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":42,"y":123,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Shijiazhuang</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38,"y":115,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Suqian</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34,"y":118,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Suzhou</t>
   </si>
   <si>
     <t>Tai an</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":36,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Taiyuan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":38,"y":113,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Taizhou(Jiangsu Province)</t>
   </si>
   <si>
     <t>Tangshan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":40,"y":118,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Tianjin</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":39,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Tongchuan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":109,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Urumqi</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":44,"y":88,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Wei nan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34,"y":110,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Wuhan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":114,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Wuhu</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":118,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Wuxi</t>
   </si>
   <si>
     <t>Xi an</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34,"y":109,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Xiangtan</t>
   </si>
   <si>
@@ -274,6 +469,9 @@
     <t>Xuzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":34,"y":117,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Yangzhou</t>
   </si>
   <si>
@@ -283,15 +481,27 @@
     <t>Yinchuan</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":39,"y":106,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Zaozhuang</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":118,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Zhangjiajie</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29,"y":110,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Zhengzhou</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":35,"y":114,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Zhenjiang</t>
   </si>
   <si>
@@ -307,78 +517,138 @@
     <t>Delta Region</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":31,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Greater Cairo</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30,"y":32,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>Accra</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":6,"y":0,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
     <t>Agra</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27,"y":78,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Ahmedabad</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":23,"y":73,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Chennai</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":13,"y":80,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Faridabad</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":28,"y":77,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Guwahati</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26,"y":92,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Kanpur</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26,"y":80,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Kolkata</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":23,"y":88,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Lucknow</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27,"y":81,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Mumbai</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":19,"y":73,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Muzaffarpur</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26,"y":85,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Panchkula</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":31,"y":77,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Patiala</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":30,"y":76,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Varanasi</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":25,"y":83,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Delhi</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29,"y":77,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
     <t>Baghdad</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":33,"y":44,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
     <t xml:space="preserve">Al-Zarqa </t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":32,"y":36,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
     <t>Al-Ahmadi</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":29,"y":48,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Al-Fahaheel</t>
   </si>
   <si>
@@ -406,40 +676,67 @@
     <t>Ulaanbaatar</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":48,"y":107,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
     <t>Pljevlja</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":43,"y":19,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Puente Piedra</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":-12,"y":-77,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Yanbu</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24,"y":38,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Jubail</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":27,"y":50,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Riyadh</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":25,"y":47,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Dammam</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":26,"y":50,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Abu Dhabi</t>
   </si>
   <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24,"y":54,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
+  </si>
+  <si>
     <t>Al Gharbia</t>
+  </si>
+  <si>
+    <t>{"srid":4326,"version":1,"points":[{"x":24,"y":53,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
   </si>
 </sst>
 </file>
@@ -849,19 +1146,25 @@
       <c r="D2">
         <v>80</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
         <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,13 +1172,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
         <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,13 +1189,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
         <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,13 +1206,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
         <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,13 +1223,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
         <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -933,13 +1248,16 @@
       <c r="D8">
         <v>61</v>
       </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -947,13 +1265,16 @@
       <c r="D9">
         <v>150</v>
       </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -961,13 +1282,16 @@
       <c r="D10">
         <v>72</v>
       </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -975,13 +1299,16 @@
       <c r="D11">
         <v>107</v>
       </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -989,13 +1316,16 @@
       <c r="D12">
         <v>57</v>
       </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1003,13 +1333,16 @@
       <c r="D13">
         <v>81</v>
       </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1017,13 +1350,16 @@
       <c r="D14">
         <v>56</v>
       </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1031,13 +1367,16 @@
       <c r="D15">
         <v>77</v>
       </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1045,13 +1384,16 @@
       <c r="D16">
         <v>70</v>
       </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1059,13 +1401,16 @@
       <c r="D17">
         <v>66</v>
       </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1073,13 +1418,16 @@
       <c r="D18">
         <v>52</v>
       </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1087,13 +1435,16 @@
       <c r="D19">
         <v>61</v>
       </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1101,13 +1452,16 @@
       <c r="D20">
         <v>59</v>
       </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1115,13 +1469,16 @@
       <c r="D21">
         <v>64</v>
       </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1129,13 +1486,16 @@
       <c r="D22">
         <v>57</v>
       </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1143,13 +1503,16 @@
       <c r="D23">
         <v>53</v>
       </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1157,13 +1520,16 @@
       <c r="D24">
         <v>101</v>
       </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1171,13 +1537,16 @@
       <c r="D25">
         <v>79</v>
       </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1185,13 +1554,16 @@
       <c r="D26">
         <v>53</v>
       </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1199,13 +1571,16 @@
       <c r="D27">
         <v>51</v>
       </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1213,13 +1588,16 @@
       <c r="D28">
         <v>91</v>
       </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1227,13 +1605,16 @@
       <c r="D29">
         <v>57</v>
       </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1241,13 +1622,16 @@
       <c r="D30">
         <v>70</v>
       </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1255,13 +1639,16 @@
       <c r="D31">
         <v>66</v>
       </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1269,13 +1656,16 @@
       <c r="D32">
         <v>99</v>
       </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1283,13 +1673,16 @@
       <c r="D33">
         <v>94</v>
       </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1297,13 +1690,16 @@
       <c r="D34">
         <v>58</v>
       </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1311,13 +1707,16 @@
       <c r="D35">
         <v>54</v>
       </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1325,13 +1724,16 @@
       <c r="D36">
         <v>54</v>
       </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1339,13 +1741,16 @@
       <c r="D37">
         <v>82</v>
       </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1353,13 +1758,16 @@
       <c r="D38">
         <v>87</v>
       </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1367,13 +1775,16 @@
       <c r="D39">
         <v>53</v>
       </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1381,13 +1792,16 @@
       <c r="D40">
         <v>59</v>
       </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1395,13 +1809,16 @@
       <c r="D41">
         <v>87</v>
       </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1409,13 +1826,16 @@
       <c r="D42">
         <v>70</v>
       </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1423,13 +1843,16 @@
       <c r="D43">
         <v>54</v>
       </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1437,13 +1860,16 @@
       <c r="D44">
         <v>60</v>
       </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1451,13 +1877,16 @@
       <c r="D45">
         <v>84</v>
       </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1465,13 +1894,16 @@
       <c r="D46">
         <v>85</v>
       </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1479,13 +1911,16 @@
       <c r="D47">
         <v>52</v>
       </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1493,13 +1928,16 @@
       <c r="D48">
         <v>55</v>
       </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1507,13 +1945,16 @@
       <c r="D49">
         <v>101</v>
       </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1521,13 +1962,16 @@
       <c r="D50">
         <v>59</v>
       </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1535,13 +1979,16 @@
       <c r="D51">
         <v>61</v>
       </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1549,13 +1996,16 @@
       <c r="D52">
         <v>61</v>
       </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1563,13 +2013,16 @@
       <c r="D53">
         <v>57</v>
       </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1577,13 +2030,16 @@
       <c r="D54">
         <v>58</v>
       </c>
+      <c r="E54" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1591,13 +2047,16 @@
       <c r="D55">
         <v>51</v>
       </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1605,13 +2064,16 @@
       <c r="D56">
         <v>57</v>
       </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1619,13 +2081,16 @@
       <c r="D57">
         <v>75</v>
       </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1633,13 +2098,16 @@
       <c r="D58">
         <v>53</v>
       </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1647,13 +2115,16 @@
       <c r="D59">
         <v>56</v>
       </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1661,13 +2132,16 @@
       <c r="D60">
         <v>72</v>
       </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1675,13 +2149,16 @@
       <c r="D61">
         <v>89</v>
       </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1689,13 +2166,16 @@
       <c r="D62">
         <v>61</v>
       </c>
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1703,13 +2183,16 @@
       <c r="D63">
         <v>58</v>
       </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1717,13 +2200,16 @@
       <c r="D64">
         <v>69</v>
       </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1731,13 +2217,16 @@
       <c r="D65">
         <v>62</v>
       </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1745,13 +2234,16 @@
       <c r="D66">
         <v>60</v>
       </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1759,13 +2251,16 @@
       <c r="D67">
         <v>85</v>
       </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1773,13 +2268,16 @@
       <c r="D68">
         <v>70</v>
       </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1787,13 +2285,16 @@
       <c r="D69">
         <v>58</v>
       </c>
+      <c r="E69" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -1801,13 +2302,16 @@
       <c r="D70">
         <v>66</v>
       </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1815,13 +2319,16 @@
       <c r="D71">
         <v>60</v>
       </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -1829,13 +2336,16 @@
       <c r="D72">
         <v>70</v>
       </c>
+      <c r="E72" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1843,13 +2353,16 @@
       <c r="D73">
         <v>58</v>
       </c>
+      <c r="E73" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -1857,13 +2370,16 @@
       <c r="D74">
         <v>61</v>
       </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -1871,13 +2387,16 @@
       <c r="D75">
         <v>57</v>
       </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -1885,13 +2404,16 @@
       <c r="D76">
         <v>56</v>
       </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1899,13 +2421,16 @@
       <c r="D77">
         <v>64</v>
       </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1913,13 +2438,16 @@
       <c r="D78">
         <v>101</v>
       </c>
+      <c r="E78" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1927,13 +2455,16 @@
       <c r="D79">
         <v>65</v>
       </c>
+      <c r="E79" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -1941,13 +2472,16 @@
       <c r="D80">
         <v>55</v>
       </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -1955,13 +2489,16 @@
       <c r="D81">
         <v>58</v>
       </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -1969,13 +2506,16 @@
       <c r="D82">
         <v>51</v>
       </c>
+      <c r="E82" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -1983,13 +2523,16 @@
       <c r="D83">
         <v>92</v>
       </c>
+      <c r="E83" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -1997,13 +2540,16 @@
       <c r="D84">
         <v>53</v>
       </c>
+      <c r="E84" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -2011,13 +2557,16 @@
       <c r="D85">
         <v>88</v>
       </c>
+      <c r="E85" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -2025,13 +2574,16 @@
       <c r="D86">
         <v>59</v>
       </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -2039,13 +2591,16 @@
       <c r="D87">
         <v>55</v>
       </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -2053,13 +2608,16 @@
       <c r="D88">
         <v>73</v>
       </c>
+      <c r="E88" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2067,13 +2625,16 @@
       <c r="D89">
         <v>102</v>
       </c>
+      <c r="E89" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -2081,13 +2642,16 @@
       <c r="D90">
         <v>117</v>
       </c>
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -2095,13 +2659,16 @@
       <c r="D91">
         <v>84</v>
       </c>
+      <c r="E91" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -2109,13 +2676,16 @@
       <c r="D92">
         <v>115</v>
       </c>
+      <c r="E92" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -2123,13 +2693,16 @@
       <c r="D93">
         <v>65</v>
       </c>
+      <c r="E93" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -2137,13 +2710,16 @@
       <c r="D94">
         <v>51</v>
       </c>
+      <c r="E94" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2151,13 +2727,16 @@
       <c r="D95">
         <v>77</v>
       </c>
+      <c r="E95" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -2165,13 +2744,16 @@
       <c r="D96">
         <v>54</v>
       </c>
+      <c r="E96" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -2179,13 +2761,16 @@
       <c r="D97">
         <v>108</v>
       </c>
+      <c r="E97" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -2193,13 +2778,16 @@
       <c r="D98">
         <v>52</v>
       </c>
+      <c r="E98" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -2207,13 +2795,16 @@
       <c r="D99">
         <v>108</v>
       </c>
+      <c r="E99" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -2221,13 +2812,16 @@
       <c r="D100">
         <v>66</v>
       </c>
+      <c r="E100" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -2235,13 +2829,16 @@
       <c r="D101">
         <v>197</v>
       </c>
+      <c r="E101" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -2249,13 +2846,16 @@
       <c r="D102">
         <v>54</v>
       </c>
+      <c r="E102" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -2263,13 +2863,16 @@
       <c r="D103">
         <v>82</v>
       </c>
+      <c r="E103" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -2277,13 +2880,16 @@
       <c r="D104">
         <v>115</v>
       </c>
+      <c r="E104" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -2291,13 +2897,16 @@
       <c r="D105">
         <v>123</v>
       </c>
+      <c r="E105" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -2305,13 +2914,16 @@
       <c r="D106">
         <v>85</v>
       </c>
+      <c r="E106" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -2319,13 +2931,16 @@
       <c r="D107">
         <v>53</v>
       </c>
+      <c r="E107" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -2333,13 +2948,16 @@
       <c r="D108">
         <v>79</v>
       </c>
+      <c r="E108" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -2347,13 +2965,16 @@
       <c r="D109">
         <v>60</v>
       </c>
+      <c r="E109" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -2361,13 +2982,16 @@
       <c r="D110">
         <v>68</v>
       </c>
+      <c r="E110" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -2375,13 +2999,16 @@
       <c r="D111">
         <v>59</v>
       </c>
+      <c r="E111" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -2389,13 +3016,16 @@
       <c r="D112">
         <v>71</v>
       </c>
+      <c r="E112" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -2403,13 +3033,16 @@
       <c r="D113">
         <v>103</v>
       </c>
+      <c r="E113" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -2417,13 +3050,16 @@
       <c r="D114">
         <v>105</v>
       </c>
+      <c r="E114" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -2431,13 +3067,16 @@
       <c r="D115">
         <v>81</v>
       </c>
+      <c r="E115" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -2445,13 +3084,16 @@
       <c r="D116">
         <v>57</v>
       </c>
+      <c r="E116" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -2459,13 +3101,16 @@
       <c r="D117">
         <v>66</v>
       </c>
+      <c r="E117" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -2473,13 +3118,16 @@
       <c r="D118">
         <v>65</v>
       </c>
+      <c r="E118" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2487,13 +3135,16 @@
       <c r="D119">
         <v>69</v>
       </c>
+      <c r="E119" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -2501,13 +3152,16 @@
       <c r="D120">
         <v>67</v>
       </c>
+      <c r="E120" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -2515,13 +3169,16 @@
       <c r="D121">
         <v>69</v>
       </c>
+      <c r="E121" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -2529,13 +3186,16 @@
       <c r="D122">
         <v>61</v>
       </c>
+      <c r="E122" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -2543,19 +3203,25 @@
       <c r="D123">
         <v>61</v>
       </c>
+      <c r="E123" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124">
         <v>63</v>
+      </c>
+      <c r="E124" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/output/Q4a.xlsx
+++ b/output/Q4a.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="271">
   <si>
     <t>country</t>
   </si>
@@ -1200,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E631"/>
+  <dimension ref="A1:E757"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11930,6 +11930,2148 @@
         <v>270</v>
       </c>
     </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>206</v>
+      </c>
+      <c r="B632" t="s">
+        <v>207</v>
+      </c>
+      <c r="C632">
+        <v>2015</v>
+      </c>
+      <c r="D632">
+        <v>80</v>
+      </c>
+      <c r="E632" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>206</v>
+      </c>
+      <c r="B633" t="s">
+        <v>209</v>
+      </c>
+      <c r="C633">
+        <v>2015</v>
+      </c>
+      <c r="D633">
+        <v>65.6</v>
+      </c>
+      <c r="E633" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>206</v>
+      </c>
+      <c r="B634" t="s">
+        <v>211</v>
+      </c>
+      <c r="C634">
+        <v>2015</v>
+      </c>
+      <c r="D634">
+        <v>81.56666667</v>
+      </c>
+      <c r="E634" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>206</v>
+      </c>
+      <c r="B635" t="s">
+        <v>213</v>
+      </c>
+      <c r="C635">
+        <v>2015</v>
+      </c>
+      <c r="D635">
+        <v>81.2</v>
+      </c>
+      <c r="E635" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>206</v>
+      </c>
+      <c r="B636" t="s">
+        <v>215</v>
+      </c>
+      <c r="C636">
+        <v>2015</v>
+      </c>
+      <c r="D636">
+        <v>83.6</v>
+      </c>
+      <c r="E636" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>206</v>
+      </c>
+      <c r="B637" t="s">
+        <v>217</v>
+      </c>
+      <c r="C637">
+        <v>2015</v>
+      </c>
+      <c r="D637">
+        <v>94.2</v>
+      </c>
+      <c r="E637" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>206</v>
+      </c>
+      <c r="B638" t="s">
+        <v>219</v>
+      </c>
+      <c r="C638">
+        <v>2015</v>
+      </c>
+      <c r="D638">
+        <v>61</v>
+      </c>
+      <c r="E638" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>221</v>
+      </c>
+      <c r="B639" t="s">
+        <v>222</v>
+      </c>
+      <c r="C639">
+        <v>2015</v>
+      </c>
+      <c r="D639">
+        <v>149.8631313</v>
+      </c>
+      <c r="E639" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>5</v>
+      </c>
+      <c r="B640" t="s">
+        <v>50</v>
+      </c>
+      <c r="C640">
+        <v>2015</v>
+      </c>
+      <c r="D640">
+        <v>72</v>
+      </c>
+      <c r="E640" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>5</v>
+      </c>
+      <c r="B641" t="s">
+        <v>52</v>
+      </c>
+      <c r="C641">
+        <v>2015</v>
+      </c>
+      <c r="D641">
+        <v>107</v>
+      </c>
+      <c r="E641" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>5</v>
+      </c>
+      <c r="B642" t="s">
+        <v>54</v>
+      </c>
+      <c r="C642">
+        <v>2015</v>
+      </c>
+      <c r="D642">
+        <v>57</v>
+      </c>
+      <c r="E642" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>5</v>
+      </c>
+      <c r="B643" t="s">
+        <v>56</v>
+      </c>
+      <c r="C643">
+        <v>2015</v>
+      </c>
+      <c r="D643">
+        <v>80.6</v>
+      </c>
+      <c r="E643" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>5</v>
+      </c>
+      <c r="B644" t="s">
+        <v>58</v>
+      </c>
+      <c r="C644">
+        <v>2015</v>
+      </c>
+      <c r="D644">
+        <v>56</v>
+      </c>
+      <c r="E644" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>5</v>
+      </c>
+      <c r="B645" t="s">
+        <v>60</v>
+      </c>
+      <c r="C645">
+        <v>2015</v>
+      </c>
+      <c r="D645">
+        <v>77</v>
+      </c>
+      <c r="E645" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>5</v>
+      </c>
+      <c r="B646" t="s">
+        <v>62</v>
+      </c>
+      <c r="C646">
+        <v>2015</v>
+      </c>
+      <c r="D646">
+        <v>70</v>
+      </c>
+      <c r="E646" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>5</v>
+      </c>
+      <c r="B647" t="s">
+        <v>64</v>
+      </c>
+      <c r="C647">
+        <v>2015</v>
+      </c>
+      <c r="D647">
+        <v>66</v>
+      </c>
+      <c r="E647" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>5</v>
+      </c>
+      <c r="B648" t="s">
+        <v>66</v>
+      </c>
+      <c r="C648">
+        <v>2015</v>
+      </c>
+      <c r="D648">
+        <v>52</v>
+      </c>
+      <c r="E648" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>5</v>
+      </c>
+      <c r="B649" t="s">
+        <v>68</v>
+      </c>
+      <c r="C649">
+        <v>2015</v>
+      </c>
+      <c r="D649">
+        <v>61</v>
+      </c>
+      <c r="E649" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>5</v>
+      </c>
+      <c r="B650" t="s">
+        <v>70</v>
+      </c>
+      <c r="C650">
+        <v>2015</v>
+      </c>
+      <c r="D650">
+        <v>59</v>
+      </c>
+      <c r="E650" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>5</v>
+      </c>
+      <c r="B651" t="s">
+        <v>72</v>
+      </c>
+      <c r="C651">
+        <v>2015</v>
+      </c>
+      <c r="D651">
+        <v>64</v>
+      </c>
+      <c r="E651" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>5</v>
+      </c>
+      <c r="B652" t="s">
+        <v>74</v>
+      </c>
+      <c r="C652">
+        <v>2015</v>
+      </c>
+      <c r="D652">
+        <v>57</v>
+      </c>
+      <c r="E652" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>5</v>
+      </c>
+      <c r="B653" t="s">
+        <v>76</v>
+      </c>
+      <c r="C653">
+        <v>2015</v>
+      </c>
+      <c r="D653">
+        <v>53</v>
+      </c>
+      <c r="E653" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>5</v>
+      </c>
+      <c r="B654" t="s">
+        <v>78</v>
+      </c>
+      <c r="C654">
+        <v>2015</v>
+      </c>
+      <c r="D654">
+        <v>101</v>
+      </c>
+      <c r="E654" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>5</v>
+      </c>
+      <c r="B655" t="s">
+        <v>80</v>
+      </c>
+      <c r="C655">
+        <v>2015</v>
+      </c>
+      <c r="D655">
+        <v>79</v>
+      </c>
+      <c r="E655" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>5</v>
+      </c>
+      <c r="B656" t="s">
+        <v>82</v>
+      </c>
+      <c r="C656">
+        <v>2015</v>
+      </c>
+      <c r="D656">
+        <v>53</v>
+      </c>
+      <c r="E656" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>5</v>
+      </c>
+      <c r="B657" t="s">
+        <v>84</v>
+      </c>
+      <c r="C657">
+        <v>2015</v>
+      </c>
+      <c r="D657">
+        <v>51</v>
+      </c>
+      <c r="E657" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>5</v>
+      </c>
+      <c r="B658" t="s">
+        <v>86</v>
+      </c>
+      <c r="C658">
+        <v>2015</v>
+      </c>
+      <c r="D658">
+        <v>91</v>
+      </c>
+      <c r="E658" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>5</v>
+      </c>
+      <c r="B659" t="s">
+        <v>88</v>
+      </c>
+      <c r="C659">
+        <v>2015</v>
+      </c>
+      <c r="D659">
+        <v>57</v>
+      </c>
+      <c r="E659" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>5</v>
+      </c>
+      <c r="B660" t="s">
+        <v>90</v>
+      </c>
+      <c r="C660">
+        <v>2015</v>
+      </c>
+      <c r="D660">
+        <v>70</v>
+      </c>
+      <c r="E660" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>5</v>
+      </c>
+      <c r="B661" t="s">
+        <v>92</v>
+      </c>
+      <c r="C661">
+        <v>2015</v>
+      </c>
+      <c r="D661">
+        <v>66</v>
+      </c>
+      <c r="E661" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>5</v>
+      </c>
+      <c r="B662" t="s">
+        <v>94</v>
+      </c>
+      <c r="C662">
+        <v>2015</v>
+      </c>
+      <c r="D662">
+        <v>99</v>
+      </c>
+      <c r="E662" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>5</v>
+      </c>
+      <c r="B663" t="s">
+        <v>96</v>
+      </c>
+      <c r="C663">
+        <v>2015</v>
+      </c>
+      <c r="D663">
+        <v>94</v>
+      </c>
+      <c r="E663" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>5</v>
+      </c>
+      <c r="B664" t="s">
+        <v>98</v>
+      </c>
+      <c r="C664">
+        <v>2015</v>
+      </c>
+      <c r="D664">
+        <v>58</v>
+      </c>
+      <c r="E664" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>5</v>
+      </c>
+      <c r="B665" t="s">
+        <v>100</v>
+      </c>
+      <c r="C665">
+        <v>2015</v>
+      </c>
+      <c r="D665">
+        <v>54</v>
+      </c>
+      <c r="E665" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>5</v>
+      </c>
+      <c r="B666" t="s">
+        <v>102</v>
+      </c>
+      <c r="C666">
+        <v>2015</v>
+      </c>
+      <c r="D666">
+        <v>54</v>
+      </c>
+      <c r="E666" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>5</v>
+      </c>
+      <c r="B667" t="s">
+        <v>104</v>
+      </c>
+      <c r="C667">
+        <v>2015</v>
+      </c>
+      <c r="D667">
+        <v>82</v>
+      </c>
+      <c r="E667" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>5</v>
+      </c>
+      <c r="B668" t="s">
+        <v>106</v>
+      </c>
+      <c r="C668">
+        <v>2015</v>
+      </c>
+      <c r="D668">
+        <v>87</v>
+      </c>
+      <c r="E668" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>5</v>
+      </c>
+      <c r="B669" t="s">
+        <v>108</v>
+      </c>
+      <c r="C669">
+        <v>2015</v>
+      </c>
+      <c r="D669">
+        <v>53</v>
+      </c>
+      <c r="E669" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>5</v>
+      </c>
+      <c r="B670" t="s">
+        <v>110</v>
+      </c>
+      <c r="C670">
+        <v>2015</v>
+      </c>
+      <c r="D670">
+        <v>59</v>
+      </c>
+      <c r="E670" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>5</v>
+      </c>
+      <c r="B671" t="s">
+        <v>112</v>
+      </c>
+      <c r="C671">
+        <v>2015</v>
+      </c>
+      <c r="D671">
+        <v>87</v>
+      </c>
+      <c r="E671" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>5</v>
+      </c>
+      <c r="B672" t="s">
+        <v>114</v>
+      </c>
+      <c r="C672">
+        <v>2015</v>
+      </c>
+      <c r="D672">
+        <v>70</v>
+      </c>
+      <c r="E672" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>5</v>
+      </c>
+      <c r="B673" t="s">
+        <v>116</v>
+      </c>
+      <c r="C673">
+        <v>2015</v>
+      </c>
+      <c r="D673">
+        <v>54</v>
+      </c>
+      <c r="E673" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>5</v>
+      </c>
+      <c r="B674" t="s">
+        <v>118</v>
+      </c>
+      <c r="C674">
+        <v>2015</v>
+      </c>
+      <c r="D674">
+        <v>60</v>
+      </c>
+      <c r="E674" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>5</v>
+      </c>
+      <c r="B675" t="s">
+        <v>120</v>
+      </c>
+      <c r="C675">
+        <v>2015</v>
+      </c>
+      <c r="D675">
+        <v>84</v>
+      </c>
+      <c r="E675" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>5</v>
+      </c>
+      <c r="B676" t="s">
+        <v>122</v>
+      </c>
+      <c r="C676">
+        <v>2015</v>
+      </c>
+      <c r="D676">
+        <v>85</v>
+      </c>
+      <c r="E676" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>5</v>
+      </c>
+      <c r="B677" t="s">
+        <v>124</v>
+      </c>
+      <c r="C677">
+        <v>2015</v>
+      </c>
+      <c r="D677">
+        <v>52</v>
+      </c>
+      <c r="E677" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>5</v>
+      </c>
+      <c r="B678" t="s">
+        <v>6</v>
+      </c>
+      <c r="C678">
+        <v>2015</v>
+      </c>
+      <c r="D678">
+        <v>55</v>
+      </c>
+      <c r="E678" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>5</v>
+      </c>
+      <c r="B679" t="s">
+        <v>126</v>
+      </c>
+      <c r="C679">
+        <v>2015</v>
+      </c>
+      <c r="D679">
+        <v>101</v>
+      </c>
+      <c r="E679" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>5</v>
+      </c>
+      <c r="B680" t="s">
+        <v>128</v>
+      </c>
+      <c r="C680">
+        <v>2015</v>
+      </c>
+      <c r="D680">
+        <v>59</v>
+      </c>
+      <c r="E680" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>5</v>
+      </c>
+      <c r="B681" t="s">
+        <v>130</v>
+      </c>
+      <c r="C681">
+        <v>2015</v>
+      </c>
+      <c r="D681">
+        <v>61</v>
+      </c>
+      <c r="E681" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>5</v>
+      </c>
+      <c r="B682" t="s">
+        <v>132</v>
+      </c>
+      <c r="C682">
+        <v>2015</v>
+      </c>
+      <c r="D682">
+        <v>61</v>
+      </c>
+      <c r="E682" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>5</v>
+      </c>
+      <c r="B683" t="s">
+        <v>134</v>
+      </c>
+      <c r="C683">
+        <v>2015</v>
+      </c>
+      <c r="D683">
+        <v>57</v>
+      </c>
+      <c r="E683" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>5</v>
+      </c>
+      <c r="B684" t="s">
+        <v>136</v>
+      </c>
+      <c r="C684">
+        <v>2015</v>
+      </c>
+      <c r="D684">
+        <v>58</v>
+      </c>
+      <c r="E684" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>5</v>
+      </c>
+      <c r="B685" t="s">
+        <v>138</v>
+      </c>
+      <c r="C685">
+        <v>2015</v>
+      </c>
+      <c r="D685">
+        <v>51</v>
+      </c>
+      <c r="E685" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>5</v>
+      </c>
+      <c r="B686" t="s">
+        <v>140</v>
+      </c>
+      <c r="C686">
+        <v>2015</v>
+      </c>
+      <c r="D686">
+        <v>57</v>
+      </c>
+      <c r="E686" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>5</v>
+      </c>
+      <c r="B687" t="s">
+        <v>142</v>
+      </c>
+      <c r="C687">
+        <v>2015</v>
+      </c>
+      <c r="D687">
+        <v>75</v>
+      </c>
+      <c r="E687" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>5</v>
+      </c>
+      <c r="B688" t="s">
+        <v>144</v>
+      </c>
+      <c r="C688">
+        <v>2015</v>
+      </c>
+      <c r="D688">
+        <v>53</v>
+      </c>
+      <c r="E688" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>5</v>
+      </c>
+      <c r="B689" t="s">
+        <v>146</v>
+      </c>
+      <c r="C689">
+        <v>2015</v>
+      </c>
+      <c r="D689">
+        <v>56</v>
+      </c>
+      <c r="E689" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>5</v>
+      </c>
+      <c r="B690" t="s">
+        <v>148</v>
+      </c>
+      <c r="C690">
+        <v>2015</v>
+      </c>
+      <c r="D690">
+        <v>72</v>
+      </c>
+      <c r="E690" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>5</v>
+      </c>
+      <c r="B691" t="s">
+        <v>150</v>
+      </c>
+      <c r="C691">
+        <v>2015</v>
+      </c>
+      <c r="D691">
+        <v>89</v>
+      </c>
+      <c r="E691" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>5</v>
+      </c>
+      <c r="B692" t="s">
+        <v>152</v>
+      </c>
+      <c r="C692">
+        <v>2015</v>
+      </c>
+      <c r="D692">
+        <v>61</v>
+      </c>
+      <c r="E692" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>5</v>
+      </c>
+      <c r="B693" t="s">
+        <v>154</v>
+      </c>
+      <c r="C693">
+        <v>2015</v>
+      </c>
+      <c r="D693">
+        <v>58</v>
+      </c>
+      <c r="E693" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>5</v>
+      </c>
+      <c r="B694" t="s">
+        <v>156</v>
+      </c>
+      <c r="C694">
+        <v>2015</v>
+      </c>
+      <c r="D694">
+        <v>69</v>
+      </c>
+      <c r="E694" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>5</v>
+      </c>
+      <c r="B695" t="s">
+        <v>158</v>
+      </c>
+      <c r="C695">
+        <v>2015</v>
+      </c>
+      <c r="D695">
+        <v>62</v>
+      </c>
+      <c r="E695" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>5</v>
+      </c>
+      <c r="B696" t="s">
+        <v>160</v>
+      </c>
+      <c r="C696">
+        <v>2015</v>
+      </c>
+      <c r="D696">
+        <v>60</v>
+      </c>
+      <c r="E696" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>5</v>
+      </c>
+      <c r="B697" t="s">
+        <v>162</v>
+      </c>
+      <c r="C697">
+        <v>2015</v>
+      </c>
+      <c r="D697">
+        <v>85</v>
+      </c>
+      <c r="E697" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>5</v>
+      </c>
+      <c r="B698" t="s">
+        <v>164</v>
+      </c>
+      <c r="C698">
+        <v>2015</v>
+      </c>
+      <c r="D698">
+        <v>70</v>
+      </c>
+      <c r="E698" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>5</v>
+      </c>
+      <c r="B699" t="s">
+        <v>166</v>
+      </c>
+      <c r="C699">
+        <v>2015</v>
+      </c>
+      <c r="D699">
+        <v>58</v>
+      </c>
+      <c r="E699" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>5</v>
+      </c>
+      <c r="B700" t="s">
+        <v>168</v>
+      </c>
+      <c r="C700">
+        <v>2015</v>
+      </c>
+      <c r="D700">
+        <v>66</v>
+      </c>
+      <c r="E700" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>5</v>
+      </c>
+      <c r="B701" t="s">
+        <v>170</v>
+      </c>
+      <c r="C701">
+        <v>2015</v>
+      </c>
+      <c r="D701">
+        <v>60</v>
+      </c>
+      <c r="E701" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>5</v>
+      </c>
+      <c r="B702" t="s">
+        <v>172</v>
+      </c>
+      <c r="C702">
+        <v>2015</v>
+      </c>
+      <c r="D702">
+        <v>70</v>
+      </c>
+      <c r="E702" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>5</v>
+      </c>
+      <c r="B703" t="s">
+        <v>174</v>
+      </c>
+      <c r="C703">
+        <v>2015</v>
+      </c>
+      <c r="D703">
+        <v>58</v>
+      </c>
+      <c r="E703" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>5</v>
+      </c>
+      <c r="B704" t="s">
+        <v>176</v>
+      </c>
+      <c r="C704">
+        <v>2015</v>
+      </c>
+      <c r="D704">
+        <v>61</v>
+      </c>
+      <c r="E704" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>5</v>
+      </c>
+      <c r="B705" t="s">
+        <v>178</v>
+      </c>
+      <c r="C705">
+        <v>2015</v>
+      </c>
+      <c r="D705">
+        <v>57</v>
+      </c>
+      <c r="E705" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>5</v>
+      </c>
+      <c r="B706" t="s">
+        <v>180</v>
+      </c>
+      <c r="C706">
+        <v>2015</v>
+      </c>
+      <c r="D706">
+        <v>56</v>
+      </c>
+      <c r="E706" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>5</v>
+      </c>
+      <c r="B707" t="s">
+        <v>182</v>
+      </c>
+      <c r="C707">
+        <v>2015</v>
+      </c>
+      <c r="D707">
+        <v>64</v>
+      </c>
+      <c r="E707" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>5</v>
+      </c>
+      <c r="B708" t="s">
+        <v>184</v>
+      </c>
+      <c r="C708">
+        <v>2015</v>
+      </c>
+      <c r="D708">
+        <v>101</v>
+      </c>
+      <c r="E708" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>5</v>
+      </c>
+      <c r="B709" t="s">
+        <v>186</v>
+      </c>
+      <c r="C709">
+        <v>2015</v>
+      </c>
+      <c r="D709">
+        <v>65</v>
+      </c>
+      <c r="E709" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>5</v>
+      </c>
+      <c r="B710" t="s">
+        <v>188</v>
+      </c>
+      <c r="C710">
+        <v>2015</v>
+      </c>
+      <c r="D710">
+        <v>55</v>
+      </c>
+      <c r="E710" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>5</v>
+      </c>
+      <c r="B711" t="s">
+        <v>190</v>
+      </c>
+      <c r="C711">
+        <v>2015</v>
+      </c>
+      <c r="D711">
+        <v>58</v>
+      </c>
+      <c r="E711" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>5</v>
+      </c>
+      <c r="B712" t="s">
+        <v>192</v>
+      </c>
+      <c r="C712">
+        <v>2015</v>
+      </c>
+      <c r="D712">
+        <v>51</v>
+      </c>
+      <c r="E712" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>5</v>
+      </c>
+      <c r="B713" t="s">
+        <v>194</v>
+      </c>
+      <c r="C713">
+        <v>2015</v>
+      </c>
+      <c r="D713">
+        <v>92</v>
+      </c>
+      <c r="E713" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>5</v>
+      </c>
+      <c r="B714" t="s">
+        <v>196</v>
+      </c>
+      <c r="C714">
+        <v>2015</v>
+      </c>
+      <c r="D714">
+        <v>53</v>
+      </c>
+      <c r="E714" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>5</v>
+      </c>
+      <c r="B715" t="s">
+        <v>198</v>
+      </c>
+      <c r="C715">
+        <v>2015</v>
+      </c>
+      <c r="D715">
+        <v>88</v>
+      </c>
+      <c r="E715" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>5</v>
+      </c>
+      <c r="B716" t="s">
+        <v>200</v>
+      </c>
+      <c r="C716">
+        <v>2015</v>
+      </c>
+      <c r="D716">
+        <v>59</v>
+      </c>
+      <c r="E716" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>5</v>
+      </c>
+      <c r="B717" t="s">
+        <v>202</v>
+      </c>
+      <c r="C717">
+        <v>2015</v>
+      </c>
+      <c r="D717">
+        <v>55</v>
+      </c>
+      <c r="E717" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>5</v>
+      </c>
+      <c r="B718" t="s">
+        <v>204</v>
+      </c>
+      <c r="C718">
+        <v>2015</v>
+      </c>
+      <c r="D718">
+        <v>73</v>
+      </c>
+      <c r="E718" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>45</v>
+      </c>
+      <c r="B719" t="s">
+        <v>46</v>
+      </c>
+      <c r="C719">
+        <v>2015</v>
+      </c>
+      <c r="D719">
+        <v>102.1873242</v>
+      </c>
+      <c r="E719" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>45</v>
+      </c>
+      <c r="B720" t="s">
+        <v>48</v>
+      </c>
+      <c r="C720">
+        <v>2015</v>
+      </c>
+      <c r="D720">
+        <v>116.5510043</v>
+      </c>
+      <c r="E720" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>40</v>
+      </c>
+      <c r="B721" t="s">
+        <v>41</v>
+      </c>
+      <c r="C721">
+        <v>2015</v>
+      </c>
+      <c r="D721">
+        <v>84.45671102</v>
+      </c>
+      <c r="E721" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>8</v>
+      </c>
+      <c r="B722" t="s">
+        <v>43</v>
+      </c>
+      <c r="C722">
+        <v>2015</v>
+      </c>
+      <c r="D722">
+        <v>114.82</v>
+      </c>
+      <c r="E722" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>8</v>
+      </c>
+      <c r="B723" t="s">
+        <v>9</v>
+      </c>
+      <c r="C723">
+        <v>2015</v>
+      </c>
+      <c r="D723">
+        <v>65.39</v>
+      </c>
+      <c r="E723" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>8</v>
+      </c>
+      <c r="B724" t="s">
+        <v>15</v>
+      </c>
+      <c r="C724">
+        <v>2015</v>
+      </c>
+      <c r="D724">
+        <v>50.6133127</v>
+      </c>
+      <c r="E724" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>8</v>
+      </c>
+      <c r="B725" t="s">
+        <v>17</v>
+      </c>
+      <c r="C725">
+        <v>2015</v>
+      </c>
+      <c r="D725">
+        <v>77.195</v>
+      </c>
+      <c r="E725" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>8</v>
+      </c>
+      <c r="B726" t="s">
+        <v>19</v>
+      </c>
+      <c r="C726">
+        <v>2015</v>
+      </c>
+      <c r="D726">
+        <v>53.71680868</v>
+      </c>
+      <c r="E726" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>8</v>
+      </c>
+      <c r="B727" t="s">
+        <v>21</v>
+      </c>
+      <c r="C727">
+        <v>2015</v>
+      </c>
+      <c r="D727">
+        <v>107.92</v>
+      </c>
+      <c r="E727" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>8</v>
+      </c>
+      <c r="B728" t="s">
+        <v>23</v>
+      </c>
+      <c r="C728">
+        <v>2015</v>
+      </c>
+      <c r="D728">
+        <v>51.73471521</v>
+      </c>
+      <c r="E728" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>8</v>
+      </c>
+      <c r="B729" t="s">
+        <v>25</v>
+      </c>
+      <c r="C729">
+        <v>2015</v>
+      </c>
+      <c r="D729">
+        <v>107.6366667</v>
+      </c>
+      <c r="E729" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>8</v>
+      </c>
+      <c r="B730" t="s">
+        <v>11</v>
+      </c>
+      <c r="C730">
+        <v>2015</v>
+      </c>
+      <c r="D730">
+        <v>66.19342366</v>
+      </c>
+      <c r="E730" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>8</v>
+      </c>
+      <c r="B731" t="s">
+        <v>13</v>
+      </c>
+      <c r="C731">
+        <v>2015</v>
+      </c>
+      <c r="D731">
+        <v>196.69</v>
+      </c>
+      <c r="E731" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>8</v>
+      </c>
+      <c r="B732" t="s">
+        <v>27</v>
+      </c>
+      <c r="C732">
+        <v>2015</v>
+      </c>
+      <c r="D732">
+        <v>53.93</v>
+      </c>
+      <c r="E732" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>8</v>
+      </c>
+      <c r="B733" t="s">
+        <v>29</v>
+      </c>
+      <c r="C733">
+        <v>2015</v>
+      </c>
+      <c r="D733">
+        <v>81.51</v>
+      </c>
+      <c r="E733" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>8</v>
+      </c>
+      <c r="B734" t="s">
+        <v>31</v>
+      </c>
+      <c r="C734">
+        <v>2015</v>
+      </c>
+      <c r="D734">
+        <v>50.11083333</v>
+      </c>
+      <c r="E734" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>8</v>
+      </c>
+      <c r="B735" t="s">
+        <v>33</v>
+      </c>
+      <c r="C735">
+        <v>2015</v>
+      </c>
+      <c r="D735">
+        <v>115.345</v>
+      </c>
+      <c r="E735" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>8</v>
+      </c>
+      <c r="B736" t="s">
+        <v>35</v>
+      </c>
+      <c r="C736">
+        <v>2015</v>
+      </c>
+      <c r="D736">
+        <v>123.12</v>
+      </c>
+      <c r="E736" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>37</v>
+      </c>
+      <c r="B737" t="s">
+        <v>38</v>
+      </c>
+      <c r="C737">
+        <v>2015</v>
+      </c>
+      <c r="D737">
+        <v>85.41348096</v>
+      </c>
+      <c r="E737" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>224</v>
+      </c>
+      <c r="B738" t="s">
+        <v>225</v>
+      </c>
+      <c r="C738">
+        <v>2015</v>
+      </c>
+      <c r="D738">
+        <v>52.73522552</v>
+      </c>
+      <c r="E738" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>227</v>
+      </c>
+      <c r="B739" t="s">
+        <v>228</v>
+      </c>
+      <c r="C739">
+        <v>2015</v>
+      </c>
+      <c r="D739">
+        <v>79.35661527</v>
+      </c>
+      <c r="E739" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>227</v>
+      </c>
+      <c r="B740" t="s">
+        <v>230</v>
+      </c>
+      <c r="C740">
+        <v>2015</v>
+      </c>
+      <c r="D740">
+        <v>59.91834729</v>
+      </c>
+      <c r="E740" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>227</v>
+      </c>
+      <c r="B741" t="s">
+        <v>232</v>
+      </c>
+      <c r="C741">
+        <v>2015</v>
+      </c>
+      <c r="D741">
+        <v>67.67726581</v>
+      </c>
+      <c r="E741" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>227</v>
+      </c>
+      <c r="B742" t="s">
+        <v>234</v>
+      </c>
+      <c r="C742">
+        <v>2015</v>
+      </c>
+      <c r="D742">
+        <v>59.01820529</v>
+      </c>
+      <c r="E742" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>227</v>
+      </c>
+      <c r="B743" t="s">
+        <v>236</v>
+      </c>
+      <c r="C743">
+        <v>2015</v>
+      </c>
+      <c r="D743">
+        <v>50.45688796</v>
+      </c>
+      <c r="E743" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>227</v>
+      </c>
+      <c r="B744" t="s">
+        <v>238</v>
+      </c>
+      <c r="C744">
+        <v>2015</v>
+      </c>
+      <c r="D744">
+        <v>71.21696263</v>
+      </c>
+      <c r="E744" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>227</v>
+      </c>
+      <c r="B745" t="s">
+        <v>240</v>
+      </c>
+      <c r="C745">
+        <v>2015</v>
+      </c>
+      <c r="D745">
+        <v>102.5472489</v>
+      </c>
+      <c r="E745" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>227</v>
+      </c>
+      <c r="B746" t="s">
+        <v>242</v>
+      </c>
+      <c r="C746">
+        <v>2015</v>
+      </c>
+      <c r="D746">
+        <v>105.2614165</v>
+      </c>
+      <c r="E746" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>227</v>
+      </c>
+      <c r="B747" t="s">
+        <v>244</v>
+      </c>
+      <c r="C747">
+        <v>2015</v>
+      </c>
+      <c r="D747">
+        <v>80.750131</v>
+      </c>
+      <c r="E747" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>246</v>
+      </c>
+      <c r="B748" t="s">
+        <v>247</v>
+      </c>
+      <c r="C748">
+        <v>2015</v>
+      </c>
+      <c r="D748">
+        <v>57</v>
+      </c>
+      <c r="E748" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>249</v>
+      </c>
+      <c r="B749" t="s">
+        <v>250</v>
+      </c>
+      <c r="C749">
+        <v>2015</v>
+      </c>
+      <c r="D749">
+        <v>65.88279078</v>
+      </c>
+      <c r="E749" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>252</v>
+      </c>
+      <c r="B750" t="s">
+        <v>253</v>
+      </c>
+      <c r="C750">
+        <v>2015</v>
+      </c>
+      <c r="D750">
+        <v>65.29886835</v>
+      </c>
+      <c r="E750" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>255</v>
+      </c>
+      <c r="B751" t="s">
+        <v>256</v>
+      </c>
+      <c r="C751">
+        <v>2015</v>
+      </c>
+      <c r="D751">
+        <v>69</v>
+      </c>
+      <c r="E751" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>255</v>
+      </c>
+      <c r="B752" t="s">
+        <v>258</v>
+      </c>
+      <c r="C752">
+        <v>2015</v>
+      </c>
+      <c r="D752">
+        <v>67</v>
+      </c>
+      <c r="E752" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>255</v>
+      </c>
+      <c r="B753" t="s">
+        <v>260</v>
+      </c>
+      <c r="C753">
+        <v>2015</v>
+      </c>
+      <c r="D753">
+        <v>69</v>
+      </c>
+      <c r="E753" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>255</v>
+      </c>
+      <c r="B754" t="s">
+        <v>262</v>
+      </c>
+      <c r="C754">
+        <v>2015</v>
+      </c>
+      <c r="D754">
+        <v>61</v>
+      </c>
+      <c r="E754" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>264</v>
+      </c>
+      <c r="B755" t="s">
+        <v>265</v>
+      </c>
+      <c r="C755">
+        <v>2015</v>
+      </c>
+      <c r="D755">
+        <v>61.4560313</v>
+      </c>
+      <c r="E755" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>264</v>
+      </c>
+      <c r="B756" t="s">
+        <v>267</v>
+      </c>
+      <c r="C756">
+        <v>2015</v>
+      </c>
+      <c r="D756">
+        <v>50.20448188</v>
+      </c>
+      <c r="E756" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>264</v>
+      </c>
+      <c r="B757" t="s">
+        <v>269</v>
+      </c>
+      <c r="C757">
+        <v>2015</v>
+      </c>
+      <c r="D757">
+        <v>62.9375423</v>
+      </c>
+      <c r="E757" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/output/Q4a.xlsx
+++ b/output/Q4a.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="271">
   <si>
     <t>country</t>
   </si>
@@ -1200,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E757"/>
+  <dimension ref="A1:E883"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14072,6 +14072,2148 @@
         <v>270</v>
       </c>
     </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>206</v>
+      </c>
+      <c r="B758" t="s">
+        <v>207</v>
+      </c>
+      <c r="C758">
+        <v>2015</v>
+      </c>
+      <c r="D758">
+        <v>80</v>
+      </c>
+      <c r="E758" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>206</v>
+      </c>
+      <c r="B759" t="s">
+        <v>209</v>
+      </c>
+      <c r="C759">
+        <v>2015</v>
+      </c>
+      <c r="D759">
+        <v>65.6</v>
+      </c>
+      <c r="E759" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>206</v>
+      </c>
+      <c r="B760" t="s">
+        <v>211</v>
+      </c>
+      <c r="C760">
+        <v>2015</v>
+      </c>
+      <c r="D760">
+        <v>81.56666667</v>
+      </c>
+      <c r="E760" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>206</v>
+      </c>
+      <c r="B761" t="s">
+        <v>213</v>
+      </c>
+      <c r="C761">
+        <v>2015</v>
+      </c>
+      <c r="D761">
+        <v>81.2</v>
+      </c>
+      <c r="E761" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>206</v>
+      </c>
+      <c r="B762" t="s">
+        <v>215</v>
+      </c>
+      <c r="C762">
+        <v>2015</v>
+      </c>
+      <c r="D762">
+        <v>83.6</v>
+      </c>
+      <c r="E762" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>206</v>
+      </c>
+      <c r="B763" t="s">
+        <v>217</v>
+      </c>
+      <c r="C763">
+        <v>2015</v>
+      </c>
+      <c r="D763">
+        <v>94.2</v>
+      </c>
+      <c r="E763" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>206</v>
+      </c>
+      <c r="B764" t="s">
+        <v>219</v>
+      </c>
+      <c r="C764">
+        <v>2015</v>
+      </c>
+      <c r="D764">
+        <v>61</v>
+      </c>
+      <c r="E764" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>221</v>
+      </c>
+      <c r="B765" t="s">
+        <v>222</v>
+      </c>
+      <c r="C765">
+        <v>2015</v>
+      </c>
+      <c r="D765">
+        <v>149.8631313</v>
+      </c>
+      <c r="E765" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>5</v>
+      </c>
+      <c r="B766" t="s">
+        <v>50</v>
+      </c>
+      <c r="C766">
+        <v>2015</v>
+      </c>
+      <c r="D766">
+        <v>72</v>
+      </c>
+      <c r="E766" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>5</v>
+      </c>
+      <c r="B767" t="s">
+        <v>52</v>
+      </c>
+      <c r="C767">
+        <v>2015</v>
+      </c>
+      <c r="D767">
+        <v>107</v>
+      </c>
+      <c r="E767" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>5</v>
+      </c>
+      <c r="B768" t="s">
+        <v>54</v>
+      </c>
+      <c r="C768">
+        <v>2015</v>
+      </c>
+      <c r="D768">
+        <v>57</v>
+      </c>
+      <c r="E768" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>5</v>
+      </c>
+      <c r="B769" t="s">
+        <v>56</v>
+      </c>
+      <c r="C769">
+        <v>2015</v>
+      </c>
+      <c r="D769">
+        <v>80.6</v>
+      </c>
+      <c r="E769" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>5</v>
+      </c>
+      <c r="B770" t="s">
+        <v>58</v>
+      </c>
+      <c r="C770">
+        <v>2015</v>
+      </c>
+      <c r="D770">
+        <v>56</v>
+      </c>
+      <c r="E770" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>5</v>
+      </c>
+      <c r="B771" t="s">
+        <v>60</v>
+      </c>
+      <c r="C771">
+        <v>2015</v>
+      </c>
+      <c r="D771">
+        <v>77</v>
+      </c>
+      <c r="E771" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>5</v>
+      </c>
+      <c r="B772" t="s">
+        <v>62</v>
+      </c>
+      <c r="C772">
+        <v>2015</v>
+      </c>
+      <c r="D772">
+        <v>70</v>
+      </c>
+      <c r="E772" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>5</v>
+      </c>
+      <c r="B773" t="s">
+        <v>64</v>
+      </c>
+      <c r="C773">
+        <v>2015</v>
+      </c>
+      <c r="D773">
+        <v>66</v>
+      </c>
+      <c r="E773" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>5</v>
+      </c>
+      <c r="B774" t="s">
+        <v>66</v>
+      </c>
+      <c r="C774">
+        <v>2015</v>
+      </c>
+      <c r="D774">
+        <v>52</v>
+      </c>
+      <c r="E774" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>5</v>
+      </c>
+      <c r="B775" t="s">
+        <v>68</v>
+      </c>
+      <c r="C775">
+        <v>2015</v>
+      </c>
+      <c r="D775">
+        <v>61</v>
+      </c>
+      <c r="E775" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>5</v>
+      </c>
+      <c r="B776" t="s">
+        <v>70</v>
+      </c>
+      <c r="C776">
+        <v>2015</v>
+      </c>
+      <c r="D776">
+        <v>59</v>
+      </c>
+      <c r="E776" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>5</v>
+      </c>
+      <c r="B777" t="s">
+        <v>72</v>
+      </c>
+      <c r="C777">
+        <v>2015</v>
+      </c>
+      <c r="D777">
+        <v>64</v>
+      </c>
+      <c r="E777" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>5</v>
+      </c>
+      <c r="B778" t="s">
+        <v>74</v>
+      </c>
+      <c r="C778">
+        <v>2015</v>
+      </c>
+      <c r="D778">
+        <v>57</v>
+      </c>
+      <c r="E778" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>5</v>
+      </c>
+      <c r="B779" t="s">
+        <v>76</v>
+      </c>
+      <c r="C779">
+        <v>2015</v>
+      </c>
+      <c r="D779">
+        <v>53</v>
+      </c>
+      <c r="E779" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>5</v>
+      </c>
+      <c r="B780" t="s">
+        <v>78</v>
+      </c>
+      <c r="C780">
+        <v>2015</v>
+      </c>
+      <c r="D780">
+        <v>101</v>
+      </c>
+      <c r="E780" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>5</v>
+      </c>
+      <c r="B781" t="s">
+        <v>80</v>
+      </c>
+      <c r="C781">
+        <v>2015</v>
+      </c>
+      <c r="D781">
+        <v>79</v>
+      </c>
+      <c r="E781" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>5</v>
+      </c>
+      <c r="B782" t="s">
+        <v>82</v>
+      </c>
+      <c r="C782">
+        <v>2015</v>
+      </c>
+      <c r="D782">
+        <v>53</v>
+      </c>
+      <c r="E782" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>5</v>
+      </c>
+      <c r="B783" t="s">
+        <v>84</v>
+      </c>
+      <c r="C783">
+        <v>2015</v>
+      </c>
+      <c r="D783">
+        <v>51</v>
+      </c>
+      <c r="E783" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>5</v>
+      </c>
+      <c r="B784" t="s">
+        <v>86</v>
+      </c>
+      <c r="C784">
+        <v>2015</v>
+      </c>
+      <c r="D784">
+        <v>91</v>
+      </c>
+      <c r="E784" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>5</v>
+      </c>
+      <c r="B785" t="s">
+        <v>88</v>
+      </c>
+      <c r="C785">
+        <v>2015</v>
+      </c>
+      <c r="D785">
+        <v>57</v>
+      </c>
+      <c r="E785" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>5</v>
+      </c>
+      <c r="B786" t="s">
+        <v>90</v>
+      </c>
+      <c r="C786">
+        <v>2015</v>
+      </c>
+      <c r="D786">
+        <v>70</v>
+      </c>
+      <c r="E786" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>5</v>
+      </c>
+      <c r="B787" t="s">
+        <v>92</v>
+      </c>
+      <c r="C787">
+        <v>2015</v>
+      </c>
+      <c r="D787">
+        <v>66</v>
+      </c>
+      <c r="E787" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>5</v>
+      </c>
+      <c r="B788" t="s">
+        <v>94</v>
+      </c>
+      <c r="C788">
+        <v>2015</v>
+      </c>
+      <c r="D788">
+        <v>99</v>
+      </c>
+      <c r="E788" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>5</v>
+      </c>
+      <c r="B789" t="s">
+        <v>96</v>
+      </c>
+      <c r="C789">
+        <v>2015</v>
+      </c>
+      <c r="D789">
+        <v>94</v>
+      </c>
+      <c r="E789" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>5</v>
+      </c>
+      <c r="B790" t="s">
+        <v>98</v>
+      </c>
+      <c r="C790">
+        <v>2015</v>
+      </c>
+      <c r="D790">
+        <v>58</v>
+      </c>
+      <c r="E790" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>5</v>
+      </c>
+      <c r="B791" t="s">
+        <v>100</v>
+      </c>
+      <c r="C791">
+        <v>2015</v>
+      </c>
+      <c r="D791">
+        <v>54</v>
+      </c>
+      <c r="E791" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>5</v>
+      </c>
+      <c r="B792" t="s">
+        <v>102</v>
+      </c>
+      <c r="C792">
+        <v>2015</v>
+      </c>
+      <c r="D792">
+        <v>54</v>
+      </c>
+      <c r="E792" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>5</v>
+      </c>
+      <c r="B793" t="s">
+        <v>104</v>
+      </c>
+      <c r="C793">
+        <v>2015</v>
+      </c>
+      <c r="D793">
+        <v>82</v>
+      </c>
+      <c r="E793" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>5</v>
+      </c>
+      <c r="B794" t="s">
+        <v>106</v>
+      </c>
+      <c r="C794">
+        <v>2015</v>
+      </c>
+      <c r="D794">
+        <v>87</v>
+      </c>
+      <c r="E794" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>5</v>
+      </c>
+      <c r="B795" t="s">
+        <v>108</v>
+      </c>
+      <c r="C795">
+        <v>2015</v>
+      </c>
+      <c r="D795">
+        <v>53</v>
+      </c>
+      <c r="E795" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>5</v>
+      </c>
+      <c r="B796" t="s">
+        <v>110</v>
+      </c>
+      <c r="C796">
+        <v>2015</v>
+      </c>
+      <c r="D796">
+        <v>59</v>
+      </c>
+      <c r="E796" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>5</v>
+      </c>
+      <c r="B797" t="s">
+        <v>112</v>
+      </c>
+      <c r="C797">
+        <v>2015</v>
+      </c>
+      <c r="D797">
+        <v>87</v>
+      </c>
+      <c r="E797" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>5</v>
+      </c>
+      <c r="B798" t="s">
+        <v>114</v>
+      </c>
+      <c r="C798">
+        <v>2015</v>
+      </c>
+      <c r="D798">
+        <v>70</v>
+      </c>
+      <c r="E798" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>5</v>
+      </c>
+      <c r="B799" t="s">
+        <v>116</v>
+      </c>
+      <c r="C799">
+        <v>2015</v>
+      </c>
+      <c r="D799">
+        <v>54</v>
+      </c>
+      <c r="E799" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>5</v>
+      </c>
+      <c r="B800" t="s">
+        <v>118</v>
+      </c>
+      <c r="C800">
+        <v>2015</v>
+      </c>
+      <c r="D800">
+        <v>60</v>
+      </c>
+      <c r="E800" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>5</v>
+      </c>
+      <c r="B801" t="s">
+        <v>120</v>
+      </c>
+      <c r="C801">
+        <v>2015</v>
+      </c>
+      <c r="D801">
+        <v>84</v>
+      </c>
+      <c r="E801" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>5</v>
+      </c>
+      <c r="B802" t="s">
+        <v>122</v>
+      </c>
+      <c r="C802">
+        <v>2015</v>
+      </c>
+      <c r="D802">
+        <v>85</v>
+      </c>
+      <c r="E802" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>5</v>
+      </c>
+      <c r="B803" t="s">
+        <v>124</v>
+      </c>
+      <c r="C803">
+        <v>2015</v>
+      </c>
+      <c r="D803">
+        <v>52</v>
+      </c>
+      <c r="E803" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>5</v>
+      </c>
+      <c r="B804" t="s">
+        <v>6</v>
+      </c>
+      <c r="C804">
+        <v>2015</v>
+      </c>
+      <c r="D804">
+        <v>55</v>
+      </c>
+      <c r="E804" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>5</v>
+      </c>
+      <c r="B805" t="s">
+        <v>126</v>
+      </c>
+      <c r="C805">
+        <v>2015</v>
+      </c>
+      <c r="D805">
+        <v>101</v>
+      </c>
+      <c r="E805" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>5</v>
+      </c>
+      <c r="B806" t="s">
+        <v>128</v>
+      </c>
+      <c r="C806">
+        <v>2015</v>
+      </c>
+      <c r="D806">
+        <v>59</v>
+      </c>
+      <c r="E806" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>5</v>
+      </c>
+      <c r="B807" t="s">
+        <v>130</v>
+      </c>
+      <c r="C807">
+        <v>2015</v>
+      </c>
+      <c r="D807">
+        <v>61</v>
+      </c>
+      <c r="E807" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>5</v>
+      </c>
+      <c r="B808" t="s">
+        <v>132</v>
+      </c>
+      <c r="C808">
+        <v>2015</v>
+      </c>
+      <c r="D808">
+        <v>61</v>
+      </c>
+      <c r="E808" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>5</v>
+      </c>
+      <c r="B809" t="s">
+        <v>134</v>
+      </c>
+      <c r="C809">
+        <v>2015</v>
+      </c>
+      <c r="D809">
+        <v>57</v>
+      </c>
+      <c r="E809" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>5</v>
+      </c>
+      <c r="B810" t="s">
+        <v>136</v>
+      </c>
+      <c r="C810">
+        <v>2015</v>
+      </c>
+      <c r="D810">
+        <v>58</v>
+      </c>
+      <c r="E810" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>5</v>
+      </c>
+      <c r="B811" t="s">
+        <v>138</v>
+      </c>
+      <c r="C811">
+        <v>2015</v>
+      </c>
+      <c r="D811">
+        <v>51</v>
+      </c>
+      <c r="E811" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>5</v>
+      </c>
+      <c r="B812" t="s">
+        <v>140</v>
+      </c>
+      <c r="C812">
+        <v>2015</v>
+      </c>
+      <c r="D812">
+        <v>57</v>
+      </c>
+      <c r="E812" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>5</v>
+      </c>
+      <c r="B813" t="s">
+        <v>142</v>
+      </c>
+      <c r="C813">
+        <v>2015</v>
+      </c>
+      <c r="D813">
+        <v>75</v>
+      </c>
+      <c r="E813" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>5</v>
+      </c>
+      <c r="B814" t="s">
+        <v>144</v>
+      </c>
+      <c r="C814">
+        <v>2015</v>
+      </c>
+      <c r="D814">
+        <v>53</v>
+      </c>
+      <c r="E814" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>5</v>
+      </c>
+      <c r="B815" t="s">
+        <v>146</v>
+      </c>
+      <c r="C815">
+        <v>2015</v>
+      </c>
+      <c r="D815">
+        <v>56</v>
+      </c>
+      <c r="E815" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>5</v>
+      </c>
+      <c r="B816" t="s">
+        <v>148</v>
+      </c>
+      <c r="C816">
+        <v>2015</v>
+      </c>
+      <c r="D816">
+        <v>72</v>
+      </c>
+      <c r="E816" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>5</v>
+      </c>
+      <c r="B817" t="s">
+        <v>150</v>
+      </c>
+      <c r="C817">
+        <v>2015</v>
+      </c>
+      <c r="D817">
+        <v>89</v>
+      </c>
+      <c r="E817" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>5</v>
+      </c>
+      <c r="B818" t="s">
+        <v>152</v>
+      </c>
+      <c r="C818">
+        <v>2015</v>
+      </c>
+      <c r="D818">
+        <v>61</v>
+      </c>
+      <c r="E818" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>5</v>
+      </c>
+      <c r="B819" t="s">
+        <v>154</v>
+      </c>
+      <c r="C819">
+        <v>2015</v>
+      </c>
+      <c r="D819">
+        <v>58</v>
+      </c>
+      <c r="E819" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>5</v>
+      </c>
+      <c r="B820" t="s">
+        <v>156</v>
+      </c>
+      <c r="C820">
+        <v>2015</v>
+      </c>
+      <c r="D820">
+        <v>69</v>
+      </c>
+      <c r="E820" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>5</v>
+      </c>
+      <c r="B821" t="s">
+        <v>158</v>
+      </c>
+      <c r="C821">
+        <v>2015</v>
+      </c>
+      <c r="D821">
+        <v>62</v>
+      </c>
+      <c r="E821" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>5</v>
+      </c>
+      <c r="B822" t="s">
+        <v>160</v>
+      </c>
+      <c r="C822">
+        <v>2015</v>
+      </c>
+      <c r="D822">
+        <v>60</v>
+      </c>
+      <c r="E822" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>5</v>
+      </c>
+      <c r="B823" t="s">
+        <v>162</v>
+      </c>
+      <c r="C823">
+        <v>2015</v>
+      </c>
+      <c r="D823">
+        <v>85</v>
+      </c>
+      <c r="E823" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>5</v>
+      </c>
+      <c r="B824" t="s">
+        <v>164</v>
+      </c>
+      <c r="C824">
+        <v>2015</v>
+      </c>
+      <c r="D824">
+        <v>70</v>
+      </c>
+      <c r="E824" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>5</v>
+      </c>
+      <c r="B825" t="s">
+        <v>166</v>
+      </c>
+      <c r="C825">
+        <v>2015</v>
+      </c>
+      <c r="D825">
+        <v>58</v>
+      </c>
+      <c r="E825" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>5</v>
+      </c>
+      <c r="B826" t="s">
+        <v>168</v>
+      </c>
+      <c r="C826">
+        <v>2015</v>
+      </c>
+      <c r="D826">
+        <v>66</v>
+      </c>
+      <c r="E826" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>5</v>
+      </c>
+      <c r="B827" t="s">
+        <v>170</v>
+      </c>
+      <c r="C827">
+        <v>2015</v>
+      </c>
+      <c r="D827">
+        <v>60</v>
+      </c>
+      <c r="E827" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>5</v>
+      </c>
+      <c r="B828" t="s">
+        <v>172</v>
+      </c>
+      <c r="C828">
+        <v>2015</v>
+      </c>
+      <c r="D828">
+        <v>70</v>
+      </c>
+      <c r="E828" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>5</v>
+      </c>
+      <c r="B829" t="s">
+        <v>174</v>
+      </c>
+      <c r="C829">
+        <v>2015</v>
+      </c>
+      <c r="D829">
+        <v>58</v>
+      </c>
+      <c r="E829" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>5</v>
+      </c>
+      <c r="B830" t="s">
+        <v>176</v>
+      </c>
+      <c r="C830">
+        <v>2015</v>
+      </c>
+      <c r="D830">
+        <v>61</v>
+      </c>
+      <c r="E830" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>5</v>
+      </c>
+      <c r="B831" t="s">
+        <v>178</v>
+      </c>
+      <c r="C831">
+        <v>2015</v>
+      </c>
+      <c r="D831">
+        <v>57</v>
+      </c>
+      <c r="E831" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>5</v>
+      </c>
+      <c r="B832" t="s">
+        <v>180</v>
+      </c>
+      <c r="C832">
+        <v>2015</v>
+      </c>
+      <c r="D832">
+        <v>56</v>
+      </c>
+      <c r="E832" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>5</v>
+      </c>
+      <c r="B833" t="s">
+        <v>182</v>
+      </c>
+      <c r="C833">
+        <v>2015</v>
+      </c>
+      <c r="D833">
+        <v>64</v>
+      </c>
+      <c r="E833" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>5</v>
+      </c>
+      <c r="B834" t="s">
+        <v>184</v>
+      </c>
+      <c r="C834">
+        <v>2015</v>
+      </c>
+      <c r="D834">
+        <v>101</v>
+      </c>
+      <c r="E834" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>5</v>
+      </c>
+      <c r="B835" t="s">
+        <v>186</v>
+      </c>
+      <c r="C835">
+        <v>2015</v>
+      </c>
+      <c r="D835">
+        <v>65</v>
+      </c>
+      <c r="E835" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>5</v>
+      </c>
+      <c r="B836" t="s">
+        <v>188</v>
+      </c>
+      <c r="C836">
+        <v>2015</v>
+      </c>
+      <c r="D836">
+        <v>55</v>
+      </c>
+      <c r="E836" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>5</v>
+      </c>
+      <c r="B837" t="s">
+        <v>190</v>
+      </c>
+      <c r="C837">
+        <v>2015</v>
+      </c>
+      <c r="D837">
+        <v>58</v>
+      </c>
+      <c r="E837" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>5</v>
+      </c>
+      <c r="B838" t="s">
+        <v>192</v>
+      </c>
+      <c r="C838">
+        <v>2015</v>
+      </c>
+      <c r="D838">
+        <v>51</v>
+      </c>
+      <c r="E838" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>5</v>
+      </c>
+      <c r="B839" t="s">
+        <v>194</v>
+      </c>
+      <c r="C839">
+        <v>2015</v>
+      </c>
+      <c r="D839">
+        <v>92</v>
+      </c>
+      <c r="E839" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>5</v>
+      </c>
+      <c r="B840" t="s">
+        <v>196</v>
+      </c>
+      <c r="C840">
+        <v>2015</v>
+      </c>
+      <c r="D840">
+        <v>53</v>
+      </c>
+      <c r="E840" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>5</v>
+      </c>
+      <c r="B841" t="s">
+        <v>198</v>
+      </c>
+      <c r="C841">
+        <v>2015</v>
+      </c>
+      <c r="D841">
+        <v>88</v>
+      </c>
+      <c r="E841" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>5</v>
+      </c>
+      <c r="B842" t="s">
+        <v>200</v>
+      </c>
+      <c r="C842">
+        <v>2015</v>
+      </c>
+      <c r="D842">
+        <v>59</v>
+      </c>
+      <c r="E842" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>5</v>
+      </c>
+      <c r="B843" t="s">
+        <v>202</v>
+      </c>
+      <c r="C843">
+        <v>2015</v>
+      </c>
+      <c r="D843">
+        <v>55</v>
+      </c>
+      <c r="E843" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>5</v>
+      </c>
+      <c r="B844" t="s">
+        <v>204</v>
+      </c>
+      <c r="C844">
+        <v>2015</v>
+      </c>
+      <c r="D844">
+        <v>73</v>
+      </c>
+      <c r="E844" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>45</v>
+      </c>
+      <c r="B845" t="s">
+        <v>46</v>
+      </c>
+      <c r="C845">
+        <v>2015</v>
+      </c>
+      <c r="D845">
+        <v>102.1873242</v>
+      </c>
+      <c r="E845" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>45</v>
+      </c>
+      <c r="B846" t="s">
+        <v>48</v>
+      </c>
+      <c r="C846">
+        <v>2015</v>
+      </c>
+      <c r="D846">
+        <v>116.5510043</v>
+      </c>
+      <c r="E846" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>40</v>
+      </c>
+      <c r="B847" t="s">
+        <v>41</v>
+      </c>
+      <c r="C847">
+        <v>2015</v>
+      </c>
+      <c r="D847">
+        <v>84.45671102</v>
+      </c>
+      <c r="E847" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>8</v>
+      </c>
+      <c r="B848" t="s">
+        <v>43</v>
+      </c>
+      <c r="C848">
+        <v>2015</v>
+      </c>
+      <c r="D848">
+        <v>114.82</v>
+      </c>
+      <c r="E848" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>8</v>
+      </c>
+      <c r="B849" t="s">
+        <v>9</v>
+      </c>
+      <c r="C849">
+        <v>2015</v>
+      </c>
+      <c r="D849">
+        <v>65.39</v>
+      </c>
+      <c r="E849" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>8</v>
+      </c>
+      <c r="B850" t="s">
+        <v>15</v>
+      </c>
+      <c r="C850">
+        <v>2015</v>
+      </c>
+      <c r="D850">
+        <v>50.6133127</v>
+      </c>
+      <c r="E850" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>8</v>
+      </c>
+      <c r="B851" t="s">
+        <v>17</v>
+      </c>
+      <c r="C851">
+        <v>2015</v>
+      </c>
+      <c r="D851">
+        <v>77.195</v>
+      </c>
+      <c r="E851" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>8</v>
+      </c>
+      <c r="B852" t="s">
+        <v>19</v>
+      </c>
+      <c r="C852">
+        <v>2015</v>
+      </c>
+      <c r="D852">
+        <v>53.71680868</v>
+      </c>
+      <c r="E852" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>8</v>
+      </c>
+      <c r="B853" t="s">
+        <v>21</v>
+      </c>
+      <c r="C853">
+        <v>2015</v>
+      </c>
+      <c r="D853">
+        <v>107.92</v>
+      </c>
+      <c r="E853" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>8</v>
+      </c>
+      <c r="B854" t="s">
+        <v>23</v>
+      </c>
+      <c r="C854">
+        <v>2015</v>
+      </c>
+      <c r="D854">
+        <v>51.73471521</v>
+      </c>
+      <c r="E854" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>8</v>
+      </c>
+      <c r="B855" t="s">
+        <v>25</v>
+      </c>
+      <c r="C855">
+        <v>2015</v>
+      </c>
+      <c r="D855">
+        <v>107.6366667</v>
+      </c>
+      <c r="E855" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>8</v>
+      </c>
+      <c r="B856" t="s">
+        <v>11</v>
+      </c>
+      <c r="C856">
+        <v>2015</v>
+      </c>
+      <c r="D856">
+        <v>66.19342366</v>
+      </c>
+      <c r="E856" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>8</v>
+      </c>
+      <c r="B857" t="s">
+        <v>13</v>
+      </c>
+      <c r="C857">
+        <v>2015</v>
+      </c>
+      <c r="D857">
+        <v>196.69</v>
+      </c>
+      <c r="E857" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>8</v>
+      </c>
+      <c r="B858" t="s">
+        <v>27</v>
+      </c>
+      <c r="C858">
+        <v>2015</v>
+      </c>
+      <c r="D858">
+        <v>53.93</v>
+      </c>
+      <c r="E858" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>8</v>
+      </c>
+      <c r="B859" t="s">
+        <v>29</v>
+      </c>
+      <c r="C859">
+        <v>2015</v>
+      </c>
+      <c r="D859">
+        <v>81.51</v>
+      </c>
+      <c r="E859" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>8</v>
+      </c>
+      <c r="B860" t="s">
+        <v>31</v>
+      </c>
+      <c r="C860">
+        <v>2015</v>
+      </c>
+      <c r="D860">
+        <v>50.11083333</v>
+      </c>
+      <c r="E860" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>8</v>
+      </c>
+      <c r="B861" t="s">
+        <v>33</v>
+      </c>
+      <c r="C861">
+        <v>2015</v>
+      </c>
+      <c r="D861">
+        <v>115.345</v>
+      </c>
+      <c r="E861" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>8</v>
+      </c>
+      <c r="B862" t="s">
+        <v>35</v>
+      </c>
+      <c r="C862">
+        <v>2015</v>
+      </c>
+      <c r="D862">
+        <v>123.12</v>
+      </c>
+      <c r="E862" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>37</v>
+      </c>
+      <c r="B863" t="s">
+        <v>38</v>
+      </c>
+      <c r="C863">
+        <v>2015</v>
+      </c>
+      <c r="D863">
+        <v>85.41348096</v>
+      </c>
+      <c r="E863" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>224</v>
+      </c>
+      <c r="B864" t="s">
+        <v>225</v>
+      </c>
+      <c r="C864">
+        <v>2015</v>
+      </c>
+      <c r="D864">
+        <v>52.73522552</v>
+      </c>
+      <c r="E864" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>227</v>
+      </c>
+      <c r="B865" t="s">
+        <v>228</v>
+      </c>
+      <c r="C865">
+        <v>2015</v>
+      </c>
+      <c r="D865">
+        <v>79.35661527</v>
+      </c>
+      <c r="E865" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>227</v>
+      </c>
+      <c r="B866" t="s">
+        <v>230</v>
+      </c>
+      <c r="C866">
+        <v>2015</v>
+      </c>
+      <c r="D866">
+        <v>59.91834729</v>
+      </c>
+      <c r="E866" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>227</v>
+      </c>
+      <c r="B867" t="s">
+        <v>232</v>
+      </c>
+      <c r="C867">
+        <v>2015</v>
+      </c>
+      <c r="D867">
+        <v>67.67726581</v>
+      </c>
+      <c r="E867" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>227</v>
+      </c>
+      <c r="B868" t="s">
+        <v>234</v>
+      </c>
+      <c r="C868">
+        <v>2015</v>
+      </c>
+      <c r="D868">
+        <v>59.01820529</v>
+      </c>
+      <c r="E868" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>227</v>
+      </c>
+      <c r="B869" t="s">
+        <v>236</v>
+      </c>
+      <c r="C869">
+        <v>2015</v>
+      </c>
+      <c r="D869">
+        <v>50.45688796</v>
+      </c>
+      <c r="E869" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>227</v>
+      </c>
+      <c r="B870" t="s">
+        <v>238</v>
+      </c>
+      <c r="C870">
+        <v>2015</v>
+      </c>
+      <c r="D870">
+        <v>71.21696263</v>
+      </c>
+      <c r="E870" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>227</v>
+      </c>
+      <c r="B871" t="s">
+        <v>240</v>
+      </c>
+      <c r="C871">
+        <v>2015</v>
+      </c>
+      <c r="D871">
+        <v>102.5472489</v>
+      </c>
+      <c r="E871" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>227</v>
+      </c>
+      <c r="B872" t="s">
+        <v>242</v>
+      </c>
+      <c r="C872">
+        <v>2015</v>
+      </c>
+      <c r="D872">
+        <v>105.2614165</v>
+      </c>
+      <c r="E872" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>227</v>
+      </c>
+      <c r="B873" t="s">
+        <v>244</v>
+      </c>
+      <c r="C873">
+        <v>2015</v>
+      </c>
+      <c r="D873">
+        <v>80.750131</v>
+      </c>
+      <c r="E873" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>246</v>
+      </c>
+      <c r="B874" t="s">
+        <v>247</v>
+      </c>
+      <c r="C874">
+        <v>2015</v>
+      </c>
+      <c r="D874">
+        <v>57</v>
+      </c>
+      <c r="E874" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>249</v>
+      </c>
+      <c r="B875" t="s">
+        <v>250</v>
+      </c>
+      <c r="C875">
+        <v>2015</v>
+      </c>
+      <c r="D875">
+        <v>65.88279078</v>
+      </c>
+      <c r="E875" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>252</v>
+      </c>
+      <c r="B876" t="s">
+        <v>253</v>
+      </c>
+      <c r="C876">
+        <v>2015</v>
+      </c>
+      <c r="D876">
+        <v>65.29886835</v>
+      </c>
+      <c r="E876" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>255</v>
+      </c>
+      <c r="B877" t="s">
+        <v>256</v>
+      </c>
+      <c r="C877">
+        <v>2015</v>
+      </c>
+      <c r="D877">
+        <v>69</v>
+      </c>
+      <c r="E877" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>255</v>
+      </c>
+      <c r="B878" t="s">
+        <v>258</v>
+      </c>
+      <c r="C878">
+        <v>2015</v>
+      </c>
+      <c r="D878">
+        <v>67</v>
+      </c>
+      <c r="E878" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>255</v>
+      </c>
+      <c r="B879" t="s">
+        <v>260</v>
+      </c>
+      <c r="C879">
+        <v>2015</v>
+      </c>
+      <c r="D879">
+        <v>69</v>
+      </c>
+      <c r="E879" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>255</v>
+      </c>
+      <c r="B880" t="s">
+        <v>262</v>
+      </c>
+      <c r="C880">
+        <v>2015</v>
+      </c>
+      <c r="D880">
+        <v>61</v>
+      </c>
+      <c r="E880" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>264</v>
+      </c>
+      <c r="B881" t="s">
+        <v>265</v>
+      </c>
+      <c r="C881">
+        <v>2015</v>
+      </c>
+      <c r="D881">
+        <v>61.4560313</v>
+      </c>
+      <c r="E881" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>264</v>
+      </c>
+      <c r="B882" t="s">
+        <v>267</v>
+      </c>
+      <c r="C882">
+        <v>2015</v>
+      </c>
+      <c r="D882">
+        <v>50.20448188</v>
+      </c>
+      <c r="E882" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>264</v>
+      </c>
+      <c r="B883" t="s">
+        <v>269</v>
+      </c>
+      <c r="C883">
+        <v>2015</v>
+      </c>
+      <c r="D883">
+        <v>62.9375423</v>
+      </c>
+      <c r="E883" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
